--- a/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
+++ b/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>CMCC-CM2-VHR4</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
+++ b/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1086">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -219,10 +219,10 @@
     <t>cmip6.atmos.key_properties.model_family</t>
   </si>
   <si>
-    <t>AGCM</t>
-  </si>
-  <si>
-    <t>ARCM</t>
+    <t>AGCM: Atmospheric General Circulation Model</t>
+  </si>
+  <si>
+    <t>ARCM: Atmospheric Regional Climate Model</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -240,22 +240,22 @@
     <t>cmip6.atmos.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>Primitive equations</t>
-  </si>
-  <si>
-    <t>Non-hydrostatic</t>
-  </si>
-  <si>
-    <t>Anelastic</t>
+    <t>primitive equations</t>
+  </si>
+  <si>
+    <t>non-hydrostatic</t>
+  </si>
+  <si>
+    <t>anelastic</t>
   </si>
   <si>
     <t>Boussinesq</t>
   </si>
   <si>
-    <t>Hydrostatic</t>
-  </si>
-  <si>
-    <t>Quasi-hydrostatic</t>
+    <t>hydrostatic</t>
+  </si>
+  <si>
+    <t>quasi-hydrostatic</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -399,10 +399,10 @@
     <t>cmip6.atmos.key_properties.orography.type</t>
   </si>
   <si>
-    <t>Fixed: present day</t>
-  </si>
-  <si>
-    <t>Fixed: modified</t>
+    <t>fixed: present day</t>
+  </si>
+  <si>
+    <t>fixed: modified: provide details of modification below</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.2 </t>
@@ -417,16 +417,16 @@
     <t>cmip6.atmos.key_properties.orography.modified</t>
   </si>
   <si>
-    <t>Related to ice sheets</t>
-  </si>
-  <si>
-    <t>Related to tectonics</t>
-  </si>
-  <si>
-    <t>Modified mean</t>
-  </si>
-  <si>
-    <t>Modified variance if taken into account in model (cf gravity waves)</t>
+    <t>related to ice sheets</t>
+  </si>
+  <si>
+    <t>related to tectonics</t>
+  </si>
+  <si>
+    <t>modified mean</t>
+  </si>
+  <si>
+    <t>modified variance if taken into account in model (cf gravity waves)</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.1.3 </t>
@@ -546,10 +546,10 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_type</t>
   </si>
   <si>
-    <t>Spectral</t>
-  </si>
-  <si>
-    <t>Fixed grid</t>
+    <t>spectral</t>
+  </si>
+  <si>
+    <t>fixed grid</t>
   </si>
   <si>
     <t>2.1.2.2 *</t>
@@ -564,16 +564,16 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_method</t>
   </si>
   <si>
-    <t>Finite elements</t>
-  </si>
-  <si>
-    <t>Finite volumes</t>
-  </si>
-  <si>
-    <t>Finite difference</t>
-  </si>
-  <si>
-    <t>Centered finite difference</t>
+    <t>finite elements</t>
+  </si>
+  <si>
+    <t>finite volumes</t>
+  </si>
+  <si>
+    <t>finite difference</t>
+  </si>
+  <si>
+    <t>centered finite difference</t>
   </si>
   <si>
     <t>2.1.2.3 *</t>
@@ -588,13 +588,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.scheme_order</t>
   </si>
   <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>Fourth</t>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>fourth</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.4 </t>
@@ -609,13 +609,13 @@
     <t>cmip6.atmos.grid.discretisation.horizontal.horizontal_pole</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>Pole rotation</t>
-  </si>
-  <si>
-    <t>Artificial island</t>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>pole rotation</t>
+  </si>
+  <si>
+    <t>artificial island</t>
   </si>
   <si>
     <t>2.1.2.5 *</t>
@@ -663,19 +663,19 @@
     <t>cmip6.atmos.grid.discretisation.vertical.coordinate_type</t>
   </si>
   <si>
-    <t>Isobaric</t>
-  </si>
-  <si>
-    <t>Sigma</t>
-  </si>
-  <si>
-    <t>Hybrid sigma-pressure</t>
-  </si>
-  <si>
-    <t>Hybrid pressure</t>
-  </si>
-  <si>
-    <t>Vertically lagrangian</t>
+    <t>isobaric: vertical coordinate on pressure levels</t>
+  </si>
+  <si>
+    <t>sigma: allows vertical coordinate to follow model terrain</t>
+  </si>
+  <si>
+    <t>hybrid sigma-pressure: sigma system near terrain and isobaric above</t>
+  </si>
+  <si>
+    <t>hybrid pressure</t>
+  </si>
+  <si>
+    <t>vertically lagrangian</t>
   </si>
   <si>
     <t>3.1.1</t>
@@ -720,19 +720,19 @@
     <t>Adams-Bashforth</t>
   </si>
   <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Implicit</t>
-  </si>
-  <si>
-    <t>Semi-implicit</t>
-  </si>
-  <si>
-    <t>Leap frog</t>
-  </si>
-  <si>
-    <t>Multi-step</t>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>semi-implicit</t>
+  </si>
+  <si>
+    <t>leap frog</t>
+  </si>
+  <si>
+    <t>multi-step</t>
   </si>
   <si>
     <t>Runge Kutta fifth order</t>
@@ -756,381 +756,384 @@
     <t>cmip6.atmos.dynamical_core.prognostic_variables</t>
   </si>
   <si>
-    <t>Surface pressure</t>
-  </si>
-  <si>
-    <t>Wind components</t>
-  </si>
-  <si>
-    <t>Divergence/curl</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Potential temperature</t>
-  </si>
-  <si>
-    <t>Total water</t>
-  </si>
-  <si>
-    <t>Water vapour</t>
-  </si>
-  <si>
-    <t>Water liquid</t>
-  </si>
-  <si>
-    <t>Water ice</t>
-  </si>
-  <si>
-    <t>Total water moments</t>
-  </si>
-  <si>
-    <t>Clouds</t>
+    <t>surface pressure</t>
+  </si>
+  <si>
+    <t>wind components</t>
+  </si>
+  <si>
+    <t>divergence/curl</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>potential temperature</t>
+  </si>
+  <si>
+    <t>total water</t>
+  </si>
+  <si>
+    <t>water vapour</t>
+  </si>
+  <si>
+    <t>water liquid</t>
+  </si>
+  <si>
+    <t>water ice</t>
+  </si>
+  <si>
+    <t>total water moments</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>radiation</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Top Boundary</t>
+  </si>
+  <si>
+    <t>Type of boundary layer at the top of the model</t>
+  </si>
+  <si>
+    <t>3.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Top Boundary Condition</t>
+  </si>
+  <si>
+    <t>Top boundary condition</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_boundary_condition</t>
+  </si>
+  <si>
+    <t>sponge layer</t>
+  </si>
+  <si>
+    <t>radiation boundary condition</t>
+  </si>
+  <si>
+    <t>3.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Top Heat</t>
+  </si>
+  <si>
+    <t>Top boundary heat treatment</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_heat</t>
+  </si>
+  <si>
+    <t>3.2.1.3 *</t>
+  </si>
+  <si>
+    <t>Top Wind</t>
+  </si>
+  <si>
+    <t>Top boundary wind treatment</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.top_boundary.top_wind</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Lateral Boundary</t>
+  </si>
+  <si>
+    <t>Type of lateral boundary condition (if the model is a regional model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.1 </t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Type of lateral boundary condition</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.lateral_boundary.condition</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Diffusion Horizontal</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.1.1 </t>
+  </si>
+  <si>
+    <t>Scheme Name</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_name</t>
+  </si>
+  <si>
+    <t>3.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Horizontal diffusion scheme method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
+  </si>
+  <si>
+    <t>iterated Laplacian</t>
+  </si>
+  <si>
+    <t>bi-harmonic</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Advection --&gt; Tracers</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.2.1 </t>
+  </si>
+  <si>
+    <t>Tracer advection scheme name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_name</t>
+  </si>
+  <si>
+    <t>Heun</t>
+  </si>
+  <si>
+    <t>Roe and VanLeer</t>
+  </si>
+  <si>
+    <t>Roe and Superbee</t>
+  </si>
+  <si>
+    <t>Prather</t>
+  </si>
+  <si>
+    <t>UTOPIA</t>
+  </si>
+  <si>
+    <t>3.4.2.2 *</t>
+  </si>
+  <si>
+    <t>Scheme Characteristics</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme characteristics</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_characteristics</t>
+  </si>
+  <si>
+    <t>Eulerian</t>
+  </si>
+  <si>
+    <t>modified Euler</t>
+  </si>
+  <si>
+    <t>Lagrangian</t>
+  </si>
+  <si>
+    <t>semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>cubic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>quintic semi-Lagrangian</t>
+  </si>
+  <si>
+    <t>mass-conserving</t>
+  </si>
+  <si>
+    <t>finite volume</t>
+  </si>
+  <si>
+    <t>flux-corrected</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>quadratic</t>
+  </si>
+  <si>
+    <t>quartic</t>
+  </si>
+  <si>
+    <t>3.4.2.3 *</t>
+  </si>
+  <si>
+    <t>Conserved Quantities</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme conserved quantities</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.conserved_quantities</t>
+  </si>
+  <si>
+    <t>dry mass</t>
+  </si>
+  <si>
+    <t>tracer mass</t>
+  </si>
+  <si>
+    <t>3.4.2.4 *</t>
+  </si>
+  <si>
+    <t>Conservation Method</t>
+  </si>
+  <si>
+    <t>Tracer advection scheme conservation method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
+  </si>
+  <si>
+    <t>conservation fixer</t>
+  </si>
+  <si>
+    <t>Priestley algorithm</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>Dynamical Core --&gt; Advection --&gt; Momentum</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.3.1 </t>
+  </si>
+  <si>
+    <t>Momentum advection schemes name</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_name</t>
+  </si>
+  <si>
+    <t>VanLeer</t>
+  </si>
+  <si>
+    <t>Janjic</t>
+  </si>
+  <si>
+    <t>SUPG (Streamline Upwind Petrov-Galerkin)</t>
+  </si>
+  <si>
+    <t>3.4.3.2 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme characteristics</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_characteristics</t>
+  </si>
+  <si>
+    <t>2nd order</t>
+  </si>
+  <si>
+    <t>4th order</t>
+  </si>
+  <si>
+    <t>cell-centred</t>
+  </si>
+  <si>
+    <t>staggered grid</t>
+  </si>
+  <si>
+    <t>semi-staggered grid</t>
+  </si>
+  <si>
+    <t>3.4.3.3 *</t>
+  </si>
+  <si>
+    <t>Scheme Staggering Type</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme staggering type</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_staggering_type</t>
+  </si>
+  <si>
+    <t>Arakawa B-grid</t>
+  </si>
+  <si>
+    <t>Arakawa C-grid</t>
+  </si>
+  <si>
+    <t>Arakawa D-grid</t>
+  </si>
+  <si>
+    <t>Arakawa E-grid</t>
+  </si>
+  <si>
+    <t>3.4.3.4 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme conserved quantities</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.conserved_quantities</t>
+  </si>
+  <si>
+    <t>Angular momentum</t>
+  </si>
+  <si>
+    <t>Horizontal momentum</t>
+  </si>
+  <si>
+    <t>Enstrophy</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Total energy</t>
+  </si>
+  <si>
+    <t>Vorticity</t>
+  </si>
+  <si>
+    <t>3.4.3.5 *</t>
+  </si>
+  <si>
+    <t>Momentum advection scheme conservation method</t>
+  </si>
+  <si>
+    <t>cmip6.atmos.dynamical_core.advection.momentum.conservation_method</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Radiation</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Top Boundary</t>
-  </si>
-  <si>
-    <t>Type of boundary layer at the top of the model</t>
-  </si>
-  <si>
-    <t>3.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Top Boundary Condition</t>
-  </si>
-  <si>
-    <t>Top boundary condition</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_boundary_condition</t>
-  </si>
-  <si>
-    <t>Sponge layer</t>
-  </si>
-  <si>
-    <t>Radiation boundary condition</t>
-  </si>
-  <si>
-    <t>3.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Top Heat</t>
-  </si>
-  <si>
-    <t>Top boundary heat treatment</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_heat</t>
-  </si>
-  <si>
-    <t>3.2.1.3 *</t>
-  </si>
-  <si>
-    <t>Top Wind</t>
-  </si>
-  <si>
-    <t>Top boundary wind treatment</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.top_boundary.top_wind</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Lateral Boundary</t>
-  </si>
-  <si>
-    <t>Type of lateral boundary condition (if the model is a regional model)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.1 </t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Type of lateral boundary condition</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.lateral_boundary.condition</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Diffusion Horizontal</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.1.1 </t>
-  </si>
-  <si>
-    <t>Scheme Name</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_name</t>
-  </si>
-  <si>
-    <t>3.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Horizontal diffusion scheme method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.diffusion_horizontal.scheme_method</t>
-  </si>
-  <si>
-    <t>Iterated Laplacian</t>
-  </si>
-  <si>
-    <t>Bi-harmonic</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Advection --&gt; Tracers</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.2.1 </t>
-  </si>
-  <si>
-    <t>Tracer advection scheme name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_name</t>
-  </si>
-  <si>
-    <t>Heun</t>
-  </si>
-  <si>
-    <t>Roe and VanLeer</t>
-  </si>
-  <si>
-    <t>Roe and Superbee</t>
-  </si>
-  <si>
-    <t>Prather</t>
-  </si>
-  <si>
-    <t>UTOPIA</t>
-  </si>
-  <si>
-    <t>3.4.2.2 *</t>
-  </si>
-  <si>
-    <t>Scheme Characteristics</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme characteristics</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.scheme_characteristics</t>
-  </si>
-  <si>
-    <t>Eulerian</t>
-  </si>
-  <si>
-    <t>Modified Euler</t>
-  </si>
-  <si>
-    <t>Lagrangian</t>
-  </si>
-  <si>
-    <t>Semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Cubic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Quintic semi-Lagrangian</t>
-  </si>
-  <si>
-    <t>Mass-conserving</t>
-  </si>
-  <si>
-    <t>Finite volume</t>
-  </si>
-  <si>
-    <t>Flux-corrected</t>
-  </si>
-  <si>
-    <t>Linear</t>
-  </si>
-  <si>
-    <t>Quadratic</t>
-  </si>
-  <si>
-    <t>Quartic</t>
-  </si>
-  <si>
-    <t>3.4.2.3 *</t>
-  </si>
-  <si>
-    <t>Conserved Quantities</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme conserved quantities</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.conserved_quantities</t>
-  </si>
-  <si>
-    <t>Dry mass</t>
-  </si>
-  <si>
-    <t>Tracer mass</t>
-  </si>
-  <si>
-    <t>3.4.2.4 *</t>
-  </si>
-  <si>
-    <t>Conservation Method</t>
-  </si>
-  <si>
-    <t>Tracer advection scheme conservation method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.tracers.conservation_method</t>
-  </si>
-  <si>
-    <t>Conservation fixer</t>
-  </si>
-  <si>
-    <t>Priestley algorithm</t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t>Dynamical Core --&gt; Advection --&gt; Momentum</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.3.1 </t>
-  </si>
-  <si>
-    <t>Momentum advection schemes name</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_name</t>
-  </si>
-  <si>
-    <t>VanLeer</t>
-  </si>
-  <si>
-    <t>Janjic</t>
-  </si>
-  <si>
-    <t>SUPG (Streamline Upwind Petrov-Galerkin)</t>
-  </si>
-  <si>
-    <t>3.4.3.2 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme characteristics</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_characteristics</t>
-  </si>
-  <si>
-    <t>2nd order</t>
-  </si>
-  <si>
-    <t>4th order</t>
-  </si>
-  <si>
-    <t>Cell-centred</t>
-  </si>
-  <si>
-    <t>Staggered grid</t>
-  </si>
-  <si>
-    <t>Semi-staggered grid</t>
-  </si>
-  <si>
-    <t>3.4.3.3 *</t>
-  </si>
-  <si>
-    <t>Scheme Staggering Type</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme staggering type</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.scheme_staggering_type</t>
-  </si>
-  <si>
-    <t>Arakawa B-grid</t>
-  </si>
-  <si>
-    <t>Arakawa C-grid</t>
-  </si>
-  <si>
-    <t>Arakawa D-grid</t>
-  </si>
-  <si>
-    <t>Arakawa E-grid</t>
-  </si>
-  <si>
-    <t>3.4.3.4 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme conserved quantities</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.conserved_quantities</t>
-  </si>
-  <si>
-    <t>Angular momentum</t>
-  </si>
-  <si>
-    <t>Horizontal momentum</t>
-  </si>
-  <si>
-    <t>Enstrophy</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Total energy</t>
-  </si>
-  <si>
-    <t>Vorticity</t>
-  </si>
-  <si>
-    <t>3.4.3.5 *</t>
-  </si>
-  <si>
-    <t>Momentum advection scheme conservation method</t>
-  </si>
-  <si>
-    <t>cmip6.atmos.dynamical_core.advection.momentum.conservation_method</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
     <t>Characteristics of the atmosphere radiation process</t>
   </si>
   <si>
@@ -1164,43 +1167,43 @@
     <t>cmip6.atmos.radiation.aerosols</t>
   </si>
   <si>
-    <t>Sulphate</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
-  </si>
-  <si>
-    <t>Sea salt</t>
-  </si>
-  <si>
-    <t>Dust</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SOA</t>
-  </si>
-  <si>
-    <t>POM</t>
-  </si>
-  <si>
-    <t>Polar stratospheric ice</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>STS</t>
+    <t>sulphate</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>sea salt</t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>BC: black carbon / soot</t>
+  </si>
+  <si>
+    <t>SOA: secondary organic aerosols</t>
+  </si>
+  <si>
+    <t>POM: particulate organic matter</t>
+  </si>
+  <si>
+    <t>polar stratospheric ice</t>
+  </si>
+  <si>
+    <t>NAT: nitric acid trihydrate</t>
+  </si>
+  <si>
+    <t>NAD: nitric acid dihydrate</t>
+  </si>
+  <si>
+    <t>STS: supercooled ternary solution aerosol particle</t>
   </si>
   <si>
     <t>4.2.1</t>
@@ -1233,13 +1236,13 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.spectral_integration</t>
   </si>
   <si>
-    <t>Wide-band model</t>
-  </si>
-  <si>
-    <t>Correlated-k</t>
-  </si>
-  <si>
-    <t>Exponential sum fitting</t>
+    <t>wide-band model</t>
+  </si>
+  <si>
+    <t>correlated-k</t>
+  </si>
+  <si>
+    <t>exponential sum fitting</t>
   </si>
   <si>
     <t>4.2.1.3 *</t>
@@ -1254,19 +1257,19 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.transport_calculation</t>
   </si>
   <si>
-    <t>Two-stream</t>
-  </si>
-  <si>
-    <t>Layer interaction</t>
-  </si>
-  <si>
-    <t>Bulk</t>
-  </si>
-  <si>
-    <t>Adaptive</t>
-  </si>
-  <si>
-    <t>Multi-stream</t>
+    <t>two-stream</t>
+  </si>
+  <si>
+    <t>layer interaction</t>
+  </si>
+  <si>
+    <t>bulk: highly parameterised methods that use bulk expressions</t>
+  </si>
+  <si>
+    <t>adaptive: exploits spatial and temporal correlations in optical characteristics</t>
+  </si>
+  <si>
+    <t>multi-stream</t>
   </si>
   <si>
     <t>4.2.1.4 *</t>
@@ -1293,10 +1296,10 @@
     <t>cmip6.atmos.radiation.shortwave_radiation.general_interactions</t>
   </si>
   <si>
-    <t>Emission/absorption,</t>
-  </si>
-  <si>
-    <t>Scattering</t>
+    <t>emission/absorption,</t>
+  </si>
+  <si>
+    <t>scattering</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -1320,28 +1323,28 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.greenhouse_gas_complexity</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>CFC-11 eq</t>
-  </si>
-  <si>
-    <t>CFC-12 eq</t>
-  </si>
-  <si>
-    <t>HFC-134a eq</t>
-  </si>
-  <si>
-    <t>Explicit ODSs</t>
-  </si>
-  <si>
-    <t>Explicit other fluorinated gases</t>
+    <t>CO2: Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>CH4: Methane</t>
+  </si>
+  <si>
+    <t>N2O: Nitrous Oxide</t>
+  </si>
+  <si>
+    <t>CFC-11 eq: Summarize the effect of non CO2, CH4, N2O and CFC-12 gases with an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>CFC-12 eq: Summarize the radiative effect of the Ozone Depleating Substances, ODSs, with a CFC-12 equivalence concentration</t>
+  </si>
+  <si>
+    <t>HFC-134a eq: Summarize the radiative effect of other fluorinated gases with a HFC-134a equivalence concentration</t>
+  </si>
+  <si>
+    <t>Explicit ODSs: Explicit representation of Ozone Depleting Substances e.g. CFCs, HCFCs and Halons</t>
+  </si>
+  <si>
+    <t>Explicit other fluorinated gases: Explicit representation of other fluorinated gases e.g. HFCs and PFCs</t>
   </si>
   <si>
     <t>O3</t>
@@ -1362,55 +1365,55 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.ODS</t>
   </si>
   <si>
-    <t>CFC-12</t>
-  </si>
-  <si>
-    <t>CFC-11</t>
-  </si>
-  <si>
-    <t>CFC-113</t>
-  </si>
-  <si>
-    <t>CFC-114</t>
-  </si>
-  <si>
-    <t>CFC-115</t>
-  </si>
-  <si>
-    <t>HCFC-22</t>
-  </si>
-  <si>
-    <t>HCFC-141b</t>
-  </si>
-  <si>
-    <t>HCFC-142b</t>
-  </si>
-  <si>
-    <t>Halon-1211</t>
-  </si>
-  <si>
-    <t>Halon-1301</t>
-  </si>
-  <si>
-    <t>Halon-2402</t>
-  </si>
-  <si>
-    <t>Methyl chloroform</t>
-  </si>
-  <si>
-    <t>Carbon tetrachloride</t>
-  </si>
-  <si>
-    <t>Methyl chloride</t>
-  </si>
-  <si>
-    <t>Methylene chloride</t>
-  </si>
-  <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>Methyl bromide</t>
+    <t>CFC-12: CFC</t>
+  </si>
+  <si>
+    <t>CFC-11: CFC</t>
+  </si>
+  <si>
+    <t>CFC-113: CFC</t>
+  </si>
+  <si>
+    <t>CFC-114: CFC</t>
+  </si>
+  <si>
+    <t>CFC-115: CFC</t>
+  </si>
+  <si>
+    <t>HCFC-22: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-141b: HCFC</t>
+  </si>
+  <si>
+    <t>HCFC-142b: HCFC</t>
+  </si>
+  <si>
+    <t>Halon-1211: halon</t>
+  </si>
+  <si>
+    <t>Halon-1301: halon</t>
+  </si>
+  <si>
+    <t>Halon-2402: halon</t>
+  </si>
+  <si>
+    <t>methyl chloroform: CH3CCl3</t>
+  </si>
+  <si>
+    <t>carbon tetrachloride: CCl4</t>
+  </si>
+  <si>
+    <t>methyl chloride: CH3Cl</t>
+  </si>
+  <si>
+    <t>methylene chloride: CH2Cl2</t>
+  </si>
+  <si>
+    <t>chloroform: CHCl3</t>
+  </si>
+  <si>
+    <t>methyl bromide: Ch3Br</t>
   </si>
   <si>
     <t xml:space="preserve">4.3.1.3 </t>
@@ -1425,64 +1428,64 @@
     <t>cmip6.atmos.radiation.shortwave_GHG.other_flourinated_gases</t>
   </si>
   <si>
-    <t>HFC-134a</t>
-  </si>
-  <si>
-    <t>HFC-23</t>
-  </si>
-  <si>
-    <t>HFC-32</t>
-  </si>
-  <si>
-    <t>HFC-125</t>
-  </si>
-  <si>
-    <t>HFC-143a</t>
-  </si>
-  <si>
-    <t>HFC-152a</t>
-  </si>
-  <si>
-    <t>HFC-227ea</t>
-  </si>
-  <si>
-    <t>HFC-236fa</t>
-  </si>
-  <si>
-    <t>HFC-245fa</t>
-  </si>
-  <si>
-    <t>HFC-365mfc</t>
-  </si>
-  <si>
-    <t>HFC-43-10mee</t>
-  </si>
-  <si>
-    <t>CF4</t>
-  </si>
-  <si>
-    <t>C2F6</t>
-  </si>
-  <si>
-    <t>C3F8</t>
-  </si>
-  <si>
-    <t>C4F10</t>
-  </si>
-  <si>
-    <t>C5F12</t>
-  </si>
-  <si>
-    <t>C6F14</t>
-  </si>
-  <si>
-    <t>C7F16</t>
-  </si>
-  <si>
-    <t>C8F18</t>
-  </si>
-  <si>
-    <t>C-C4F8</t>
+    <t>HFC-134a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-23: HFC</t>
+  </si>
+  <si>
+    <t>HFC-32: HFC</t>
+  </si>
+  <si>
+    <t>HFC-125: HFC</t>
+  </si>
+  <si>
+    <t>HFC-143a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-152a: HFC</t>
+  </si>
+  <si>
+    <t>HFC-227ea: HFC</t>
+  </si>
+  <si>
+    <t>HFC-236fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-245fa: HFC</t>
+  </si>
+  <si>
+    <t>HFC-365mfc: HFC</t>
+  </si>
+  <si>
+    <t>HFC-43-10mee: HFC</t>
+  </si>
+  <si>
+    <t>CF4: PFC</t>
+  </si>
+  <si>
+    <t>C2F6: PFC</t>
+  </si>
+  <si>
+    <t>C3F8: PFC</t>
+  </si>
+  <si>
+    <t>C4F10: PFC</t>
+  </si>
+  <si>
+    <t>C5F12: PFC</t>
+  </si>
+  <si>
+    <t>C6F14: PFC</t>
+  </si>
+  <si>
+    <t>C7F16: PFC</t>
+  </si>
+  <si>
+    <t>C8F18: PFC</t>
+  </si>
+  <si>
+    <t>c-C4F8: PFC</t>
   </si>
   <si>
     <t>NF3</t>
@@ -1515,25 +1518,25 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.physical_representation</t>
   </si>
   <si>
-    <t>Bi-modal size distribution</t>
-  </si>
-  <si>
-    <t>Ensemble of ice crystals</t>
-  </si>
-  <si>
-    <t>Mean projected area</t>
-  </si>
-  <si>
-    <t>Ice water path</t>
-  </si>
-  <si>
-    <t>Crystal asymmetry</t>
-  </si>
-  <si>
-    <t>Crystal aspect ratio</t>
-  </si>
-  <si>
-    <t>Effective crystal radius</t>
+    <t>bi-modal size distribution: small mode diameters: a few tens of microns, large mode diameters: typically hundreds of microns</t>
+  </si>
+  <si>
+    <t>ensemble of ice crystals: complex shapes represented with an ensemble of symmetric shapes</t>
+  </si>
+  <si>
+    <t>mean projected area: randomly oriented irregular ice crystals present a greater mean projected area than spheres</t>
+  </si>
+  <si>
+    <t>ice water path: Integrated ice water path through the cloud kg m-2</t>
+  </si>
+  <si>
+    <t>crystal asymmetry</t>
+  </si>
+  <si>
+    <t>crystal aspect ratio</t>
+  </si>
+  <si>
+    <t>effective crystal radius</t>
   </si>
   <si>
     <t>4.4.1.2 *</t>
@@ -1548,19 +1551,19 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_ice.optical_methods</t>
   </si>
   <si>
-    <t>T-matrix</t>
-  </si>
-  <si>
-    <t>Geometric optics</t>
-  </si>
-  <si>
-    <t>Finite difference time domain (FDTD)</t>
-  </si>
-  <si>
-    <t>Mie theory</t>
-  </si>
-  <si>
-    <t>Anomalous diffraction approximation</t>
+    <t>T-matrix: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>geometric optics: For non-spherical particles</t>
+  </si>
+  <si>
+    <t>finite difference time domain (FDTD): For non-spherical particles</t>
+  </si>
+  <si>
+    <t>Mie theory: For spherical particles</t>
+  </si>
+  <si>
+    <t>anomalous diffraction approximation</t>
   </si>
   <si>
     <t>4.5.1</t>
@@ -1581,16 +1584,16 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_liquid.physical_representation</t>
   </si>
   <si>
-    <t>Cloud droplet number concentration</t>
-  </si>
-  <si>
-    <t>Effective cloud droplet radii</t>
-  </si>
-  <si>
-    <t>Droplet size distribution</t>
-  </si>
-  <si>
-    <t>Liquid water path</t>
+    <t>cloud droplet number concentration: CDNC</t>
+  </si>
+  <si>
+    <t>effective cloud droplet radii</t>
+  </si>
+  <si>
+    <t>droplet size distribution</t>
+  </si>
+  <si>
+    <t>liquid water path: Integrated liquid water path through the cloud kg m-2</t>
   </si>
   <si>
     <t>4.5.1.2 *</t>
@@ -1623,13 +1626,13 @@
     <t>cmip6.atmos.radiation.shortwave_cloud_inhomogeneity.cloud_inhomogeneity</t>
   </si>
   <si>
-    <t>Monte Carlo Independent Column Approximation</t>
-  </si>
-  <si>
-    <t>Triplecloud</t>
-  </si>
-  <si>
-    <t>Analytic</t>
+    <t>Monte Carlo Independent Column Approximation: McICA</t>
+  </si>
+  <si>
+    <t>Triplecloud: Regions of clear sky, optically thin cloud and optically thick cloud, Shonk et al 2010</t>
+  </si>
+  <si>
+    <t>analytic</t>
   </si>
   <si>
     <t>4.7.1</t>
@@ -1650,22 +1653,22 @@
     <t>cmip6.atmos.radiation.shortwave_aerosols.physical_representation</t>
   </si>
   <si>
-    <t>Number concentration</t>
-  </si>
-  <si>
-    <t>Effective radii</t>
-  </si>
-  <si>
-    <t>Size distribution</t>
-  </si>
-  <si>
-    <t>Asymmetry</t>
-  </si>
-  <si>
-    <t>Aspect ratio</t>
-  </si>
-  <si>
-    <t>Mixing state</t>
+    <t>number concentration</t>
+  </si>
+  <si>
+    <t>effective radii</t>
+  </si>
+  <si>
+    <t>size distribution</t>
+  </si>
+  <si>
+    <t>asymmetry</t>
+  </si>
+  <si>
+    <t>aspect ratio</t>
+  </si>
+  <si>
+    <t>mixing state: For shortwave radiative interaction</t>
   </si>
   <si>
     <t>4.7.1.2 *</t>
@@ -1914,7 +1917,7 @@
     <t>Holtslag-Boville</t>
   </si>
   <si>
-    <t>EDMF</t>
+    <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
   </si>
   <si>
     <t>5.2.1.2 *</t>
@@ -1935,16 +1938,16 @@
     <t>TKE coupled with water</t>
   </si>
   <si>
-    <t>Vertical profile of Kz</t>
-  </si>
-  <si>
-    <t>Non-local diffusion</t>
+    <t>vertical profile of Kz</t>
+  </si>
+  <si>
+    <t>non-local diffusion</t>
   </si>
   <si>
     <t>Monin-Obukhov similarity</t>
   </si>
   <si>
-    <t>Coastal Buddy Scheme</t>
+    <t>Coastal Buddy Scheme: separate components for coastal near surface winds over ocean and land</t>
   </si>
   <si>
     <t>Coupled with convection</t>
@@ -1953,7 +1956,7 @@
     <t>Coupled with gravity waves</t>
   </si>
   <si>
-    <t>Depth capped at cloud base</t>
+    <t>Depth capped at cloud base: boundary layer capped at cloud base when convection is diagnosed</t>
   </si>
   <si>
     <t>5.2.1.3 *</t>
@@ -2007,13 +2010,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_type</t>
   </si>
   <si>
-    <t>Mass-flux</t>
-  </si>
-  <si>
-    <t>Adjustment</t>
-  </si>
-  <si>
-    <t>Plume ensemble</t>
+    <t>mass-flux</t>
+  </si>
+  <si>
+    <t>adjustment</t>
+  </si>
+  <si>
+    <t>plume ensemble: Zhang-McFarlane</t>
   </si>
   <si>
     <t>5.3.1.3 *</t>
@@ -2025,16 +2028,19 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_method</t>
   </si>
   <si>
-    <t>CAPE</t>
-  </si>
-  <si>
-    <t>Ensemble</t>
-  </si>
-  <si>
-    <t>CAPE/WFN based</t>
-  </si>
-  <si>
-    <t>TKE/CIN based</t>
+    <t>CAPE: Mass flux determined by CAPE, convectively available potential energy.</t>
+  </si>
+  <si>
+    <t>bulk: A bulk mass flux scheme is used</t>
+  </si>
+  <si>
+    <t>ensemble: Summation over an ensemble of convective clouds with differing characteristics</t>
+  </si>
+  <si>
+    <t>CAPE/WFN based: CAPE-Cloud Work Function: Based on the quasi-equilibrium of the free troposphere</t>
+  </si>
+  <si>
+    <t>TKE/CIN based: TKE-Convective Inhibition: Based on the quasi-equilibrium of the boundary layer</t>
   </si>
   <si>
     <t>5.3.1.4 *</t>
@@ -2049,31 +2055,31 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.processes</t>
   </si>
   <si>
-    <t>Vertical momentum transport</t>
-  </si>
-  <si>
-    <t>Convective momentum transport</t>
-  </si>
-  <si>
-    <t>Entrainment</t>
-  </si>
-  <si>
-    <t>Detrainment</t>
-  </si>
-  <si>
-    <t>Penetrative convection</t>
-  </si>
-  <si>
-    <t>Updrafts</t>
-  </si>
-  <si>
-    <t>Downdrafts</t>
-  </si>
-  <si>
-    <t>Radiative effect of anvils</t>
-  </si>
-  <si>
-    <t>Re-evaporation of convective precipitation</t>
+    <t>vertical momentum transport</t>
+  </si>
+  <si>
+    <t>convective momentum transport</t>
+  </si>
+  <si>
+    <t>entrainment</t>
+  </si>
+  <si>
+    <t>detrainment</t>
+  </si>
+  <si>
+    <t>penetrative convection</t>
+  </si>
+  <si>
+    <t>updrafts</t>
+  </si>
+  <si>
+    <t>downdrafts</t>
+  </si>
+  <si>
+    <t>radiative effect of anvils</t>
+  </si>
+  <si>
+    <t>re-evaporation of convective precipitation</t>
   </si>
   <si>
     <t xml:space="preserve">5.3.1.5 </t>
@@ -2088,13 +2094,13 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.microphysics</t>
   </si>
   <si>
-    <t>Tuning parameter based</t>
-  </si>
-  <si>
-    <t>Single moment</t>
-  </si>
-  <si>
-    <t>Two moment</t>
+    <t>tuning parameter based</t>
+  </si>
+  <si>
+    <t>single moment</t>
+  </si>
+  <si>
+    <t>two moment</t>
   </si>
   <si>
     <t>5.4.1</t>
@@ -2124,7 +2130,7 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_type</t>
   </si>
   <si>
-    <t>Cumulus-capped boundary layer</t>
+    <t>cumulus-capped boundary layer</t>
   </si>
   <si>
     <t>5.4.1.3 *</t>
@@ -2136,13 +2142,13 @@
     <t>cmip6.atmos.turbulence_convection.shallow_convection.scheme_method</t>
   </si>
   <si>
-    <t>Same as deep (unified)</t>
-  </si>
-  <si>
-    <t>Included in boundary layer turbulence</t>
-  </si>
-  <si>
-    <t>Separate diagnosis</t>
+    <t>same as deep (unified)</t>
+  </si>
+  <si>
+    <t>included in boundary layer turbulence</t>
+  </si>
+  <si>
+    <t>separate diagnosis: Deep and Shallow convection schemes use different thermodynamic closure criteria</t>
   </si>
   <si>
     <t>5.4.1.4 *</t>
@@ -2220,16 +2226,16 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_precipitation.hydrometeors</t>
   </si>
   <si>
-    <t>Liquid rain</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Hail</t>
-  </si>
-  <si>
-    <t>Graupel</t>
+    <t>liquid rain</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>graupel</t>
   </si>
   <si>
     <t>6.3.1</t>
@@ -2259,28 +2265,28 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
-    <t>Mixed phase</t>
-  </si>
-  <si>
-    <t>Cloud droplets</t>
-  </si>
-  <si>
-    <t>Cloud ice</t>
-  </si>
-  <si>
-    <t>Ice nucleation</t>
-  </si>
-  <si>
-    <t>Water vapour deposition</t>
-  </si>
-  <si>
-    <t>Effect of raindrops</t>
-  </si>
-  <si>
-    <t>Effect of snow</t>
-  </si>
-  <si>
-    <t>Effect of graupel</t>
+    <t>mixed phase</t>
+  </si>
+  <si>
+    <t>cloud droplets</t>
+  </si>
+  <si>
+    <t>cloud ice</t>
+  </si>
+  <si>
+    <t>ice nucleation</t>
+  </si>
+  <si>
+    <t>water vapour deposition</t>
+  </si>
+  <si>
+    <t>effect of raindrops</t>
+  </si>
+  <si>
+    <t>effect of snow</t>
+  </si>
+  <si>
+    <t>effect of graupel</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -2319,10 +2325,10 @@
     <t>cmip6.atmos.cloud_scheme.scheme_type</t>
   </si>
   <si>
-    <t>Prognostic</t>
-  </si>
-  <si>
-    <t>Diagnostic</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
   </si>
   <si>
     <t>7.1.1.4 *</t>
@@ -2346,7 +2352,7 @@
     <t>cmip6.atmos.cloud_scheme.processes</t>
   </si>
   <si>
-    <t>Bulk cloud</t>
+    <t>bulk cloud</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.6 </t>
@@ -2358,16 +2364,19 @@
     <t>cmip6.atmos.cloud_scheme.prognostic_variables</t>
   </si>
   <si>
-    <t>Cloud amount</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>Ice crystal number concentration</t>
+    <t>cloud amount</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>cloud droplet number concentration: To document the use of two-moment cloud microphysics schemes</t>
+  </si>
+  <si>
+    <t>ice crystal number concentration: To document the use of two-moment cloud microphysics schemes</t>
   </si>
   <si>
     <t xml:space="preserve">7.1.1.7 </t>
@@ -2382,22 +2391,22 @@
     <t>cmip6.atmos.cloud_scheme.atmos_coupling</t>
   </si>
   <si>
-    <t>Atmosphere_radiation</t>
-  </si>
-  <si>
-    <t>Atmosphere_microphysics_precipitation</t>
-  </si>
-  <si>
-    <t>Atmosphere_turbulence_convection</t>
-  </si>
-  <si>
-    <t>Atmosphere_gravity_waves</t>
-  </si>
-  <si>
-    <t>Atmosphere_natural_forcing</t>
-  </si>
-  <si>
-    <t>Atmosphere_observation_simulation</t>
+    <t>atmosphere_radiation</t>
+  </si>
+  <si>
+    <t>atmosphere_microphysics_precipitation</t>
+  </si>
+  <si>
+    <t>atmosphere_turbulence_convection</t>
+  </si>
+  <si>
+    <t>atmosphere_gravity_waves</t>
+  </si>
+  <si>
+    <t>atmosphere_natural_forcing</t>
+  </si>
+  <si>
+    <t>atmosphere_observation_simulation</t>
   </si>
   <si>
     <t>7.2.1</t>
@@ -2421,16 +2430,16 @@
     <t>cmip6.atmos.cloud_scheme.optical_cloud_properties.cloud_overlap_method</t>
   </si>
   <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Maximum-random</t>
-  </si>
-  <si>
-    <t>Exponential</t>
+    <t>random</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>maximum-random: combination of maximum and random overlap between clouds</t>
+  </si>
+  <si>
+    <t>exponential</t>
   </si>
   <si>
     <t xml:space="preserve">7.2.1.2 </t>
@@ -2496,13 +2505,13 @@
     <t>cmip6.atmos.cloud_scheme.sub_grid_scale_water_distribution.convection_coupling</t>
   </si>
   <si>
-    <t>Coupled with deep</t>
-  </si>
-  <si>
-    <t>Coupled with shallow</t>
-  </si>
-  <si>
-    <t>Not coupled with convection</t>
+    <t>coupled with deep</t>
+  </si>
+  <si>
+    <t>coupled with shallow</t>
+  </si>
+  <si>
+    <t>not coupled with convection</t>
   </si>
   <si>
     <t>7.4.1</t>
@@ -2598,13 +2607,13 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_estimation_method</t>
   </si>
   <si>
-    <t>No adjustment</t>
+    <t>no adjustment</t>
   </si>
   <si>
     <t>IR brightness</t>
   </si>
   <si>
-    <t>Visible optical depth</t>
+    <t>visible optical depth</t>
   </si>
   <si>
     <t xml:space="preserve">8.2.1.2 </t>
@@ -2619,10 +2628,10 @@
     <t>cmip6.atmos.observation_simulation.isscp_attributes.top_height_direction</t>
   </si>
   <si>
-    <t>Lowest altitude level</t>
-  </si>
-  <si>
-    <t>Highest altitude level</t>
+    <t>lowest altitude level</t>
+  </si>
+  <si>
+    <t>highest altitude level</t>
   </si>
   <si>
     <t>8.3.1</t>
@@ -2721,10 +2730,10 @@
     <t>cmip6.atmos.observation_simulation.radar_inputs.type</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Space borne</t>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>space borne</t>
   </si>
   <si>
     <t xml:space="preserve">8.4.1.3 </t>
@@ -2772,10 +2781,10 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.ice_types</t>
   </si>
   <si>
-    <t>Ice spheres</t>
-  </si>
-  <si>
-    <t>Ice non-spherical</t>
+    <t>ice spheres</t>
+  </si>
+  <si>
+    <t>ice non-spherical</t>
   </si>
   <si>
     <t xml:space="preserve">8.5.1.2 </t>
@@ -2790,7 +2799,7 @@
     <t>cmip6.atmos.observation_simulation.lidar_inputs.overlap</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>max</t>
   </si>
   <si>
     <t>9.1.1</t>
@@ -2850,10 +2859,10 @@
     <t>cmip6.atmos.gravity_waves.background</t>
   </si>
   <si>
-    <t>Continuous spectrum</t>
-  </si>
-  <si>
-    <t>Discrete spectrum</t>
+    <t>continuous spectrum</t>
+  </si>
+  <si>
+    <t>discrete spectrum</t>
   </si>
   <si>
     <t>9.1.1.5 *</t>
@@ -2868,13 +2877,13 @@
     <t>cmip6.atmos.gravity_waves.subgrid_scale_orography</t>
   </si>
   <si>
-    <t>Effect on drag</t>
-  </si>
-  <si>
-    <t>Effect on lifting</t>
-  </si>
-  <si>
-    <t>Enhanced topography</t>
+    <t>effect on drag</t>
+  </si>
+  <si>
+    <t>effect on lifting</t>
+  </si>
+  <si>
+    <t>enhanced topography: To enhance the generation of long waves in the atmosphere</t>
   </si>
   <si>
     <t>9.2.1</t>
@@ -2907,19 +2916,19 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.source_mechanisms</t>
   </si>
   <si>
-    <t>Linear mountain waves</t>
-  </si>
-  <si>
-    <t>Hydraulic jump</t>
-  </si>
-  <si>
-    <t>Envelope orography</t>
-  </si>
-  <si>
-    <t>Low level flow blocking</t>
-  </si>
-  <si>
-    <t>Statistical sub-grid scale variance</t>
+    <t>linear mountain waves</t>
+  </si>
+  <si>
+    <t>hydraulic jump</t>
+  </si>
+  <si>
+    <t>envelope orography</t>
+  </si>
+  <si>
+    <t>low level flow blocking</t>
+  </si>
+  <si>
+    <t>statistical sub-grid scale variance</t>
   </si>
   <si>
     <t>9.2.1.3 *</t>
@@ -2934,10 +2943,10 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.calculation_method</t>
   </si>
   <si>
-    <t>Non-linear calculation</t>
-  </si>
-  <si>
-    <t>More than two cardinal directions</t>
+    <t>non-linear calculation</t>
+  </si>
+  <si>
+    <t>more than two cardinal directions</t>
   </si>
   <si>
     <t>9.2.1.4 *</t>
@@ -2952,13 +2961,13 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.propagation_scheme</t>
   </si>
   <si>
-    <t>Linear theory</t>
-  </si>
-  <si>
-    <t>Non-linear theory</t>
-  </si>
-  <si>
-    <t>Includes boundary layer ducting</t>
+    <t>linear theory</t>
+  </si>
+  <si>
+    <t>non-linear theory</t>
+  </si>
+  <si>
+    <t>includes boundary layer ducting</t>
   </si>
   <si>
     <t>9.2.1.5 *</t>
@@ -2973,13 +2982,13 @@
     <t>cmip6.atmos.gravity_waves.orographic_gravity_waves.dissipation_scheme</t>
   </si>
   <si>
-    <t>Total wave</t>
-  </si>
-  <si>
-    <t>Single wave</t>
-  </si>
-  <si>
-    <t>Wave saturation vs Richardson number</t>
+    <t>total wave</t>
+  </si>
+  <si>
+    <t>single wave</t>
+  </si>
+  <si>
+    <t>wave saturation vs Richardson number</t>
   </si>
   <si>
     <t>9.3.1</t>
@@ -3009,13 +3018,13 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.source_mechanisms</t>
   </si>
   <si>
-    <t>Convection</t>
-  </si>
-  <si>
-    <t>Precipitation</t>
-  </si>
-  <si>
-    <t>Background spectrum</t>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>background spectrum</t>
   </si>
   <si>
     <t>9.3.1.3 *</t>
@@ -3027,10 +3036,10 @@
     <t>cmip6.atmos.gravity_waves.non_orographic_gravity_waves.calculation_method</t>
   </si>
   <si>
-    <t>Spatially dependent</t>
-  </si>
-  <si>
-    <t>Temporally dependent</t>
+    <t>spatially dependent</t>
+  </si>
+  <si>
+    <t>temporally dependent</t>
   </si>
   <si>
     <t>9.3.1.4 *</t>
@@ -3099,13 +3108,13 @@
     <t>cmip6.atmos.natural_forcing.solar_pathways.pathways</t>
   </si>
   <si>
-    <t>SW radiation</t>
-  </si>
-  <si>
-    <t>Precipitating energetic particles</t>
-  </si>
-  <si>
-    <t>Cosmic rays</t>
+    <t>SW radiation: Shortwave solar spectral irradiance.</t>
+  </si>
+  <si>
+    <t>precipitating energetic particles: Precipitating energetic particles from the sun (predominantly protons) and the magnetosphere (predominantly electrons) affect the ionization levels in the polar middle and upper atmosphere, leading to significant changes of the chemical composition</t>
+  </si>
+  <si>
+    <t>cosmic rays: Cosmic rays are the main source of ionization in the troposphere and lower stratosphere.</t>
   </si>
   <si>
     <t>10.3.1</t>
@@ -3126,10 +3135,10 @@
     <t>cmip6.atmos.natural_forcing.solar_constant.type</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Transient</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>transient</t>
   </si>
   <si>
     <t xml:space="preserve">10.3.1.2 </t>
@@ -3270,10 +3279,10 @@
     <t>cmip6.atmos.natural_forcing.volcanoes_treatment.volcanoes_implementation</t>
   </si>
   <si>
-    <t>High frequency solar constant anomaly</t>
-  </si>
-  <si>
-    <t>Stratospheric aerosols optical thickness</t>
+    <t>high frequency solar constant anomaly</t>
+  </si>
+  <si>
+    <t>stratospheric aerosols optical thickness</t>
   </si>
 </sst>
 </file>
@@ -3934,20 +3943,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3958,10 +3967,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3969,7 +3978,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3980,10 +3989,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3996,23 +4005,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4020,10 +4029,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4034,13 +4043,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>66</v>
@@ -4048,10 +4057,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4059,19 +4068,19 @@
         <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>66</v>
@@ -4079,23 +4088,23 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4103,19 +4112,19 @@
         <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>66</v>
@@ -4123,10 +4132,10 @@
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
@@ -4134,10 +4143,10 @@
         <v>94</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -4145,10 +4154,10 @@
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
@@ -4156,10 +4165,10 @@
         <v>94</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -4167,10 +4176,10 @@
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -4178,10 +4187,10 @@
         <v>94</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -4189,34 +4198,34 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="13" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -4224,7 +4233,7 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>121</v>
@@ -4235,19 +4244,19 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>66</v>
@@ -4255,10 +4264,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -4266,10 +4275,10 @@
         <v>99</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -4277,10 +4286,10 @@
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -4288,10 +4297,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -4299,23 +4308,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -4323,19 +4332,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>66</v>
@@ -4343,10 +4352,10 @@
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
@@ -4354,10 +4363,10 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -4368,10 +4377,10 @@
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>66</v>
@@ -4437,20 +4446,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4461,10 +4470,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -4472,7 +4481,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -4483,10 +4492,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -4499,10 +4508,10 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
@@ -4510,19 +4519,19 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>66</v>
@@ -4530,10 +4539,10 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -4541,19 +4550,19 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>66</v>
@@ -4561,10 +4570,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4572,10 +4581,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4586,13 +4595,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>66</v>
@@ -4600,20 +4609,20 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>45</v>
@@ -4624,10 +4633,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4635,10 +4644,10 @@
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
@@ -4646,10 +4655,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -4660,19 +4669,19 @@
     <row r="37" spans="1:32" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AF37" s="6" t="s">
         <v>66</v>
@@ -4680,10 +4689,10 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -4691,10 +4700,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -4705,10 +4714,10 @@
     <row r="42" spans="1:32" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>66</v>
@@ -4716,10 +4725,10 @@
     </row>
     <row r="44" spans="1:32" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
@@ -4727,22 +4736,22 @@
         <v>61</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="11"/>
       <c r="AA46" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>66</v>
@@ -4750,10 +4759,10 @@
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="24" customHeight="1">
@@ -4761,19 +4770,19 @@
         <v>61</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>173</v>
@@ -4782,7 +4791,7 @@
         <v>315</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>66</v>
@@ -4790,20 +4799,20 @@
     </row>
     <row r="53" spans="1:32" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="24" customHeight="1">
       <c r="B54" s="13" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>45</v>
@@ -4814,10 +4823,10 @@
         <v>46</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="24" customHeight="1">
@@ -4825,10 +4834,10 @@
     </row>
     <row r="60" spans="1:32" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="24" customHeight="1">
@@ -4836,10 +4845,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="24" customHeight="1">
@@ -4850,13 +4859,13 @@
     <row r="63" spans="1:32" ht="24" customHeight="1">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="AD63" s="6" t="s">
         <v>66</v>
@@ -4864,10 +4873,10 @@
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -4875,10 +4884,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="24" customHeight="1">
@@ -4889,18 +4898,18 @@
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
@@ -4908,19 +4917,19 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AC72" s="6" t="s">
         <v>66</v>
@@ -4928,10 +4937,10 @@
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="24" customHeight="1">
@@ -4939,19 +4948,19 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="AC76" s="6" t="s">
         <v>173</v>
@@ -4960,7 +4969,7 @@
         <v>315</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AF76" s="6" t="s">
         <v>66</v>
@@ -5022,20 +5031,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5046,10 +5055,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5057,7 +5066,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -5068,10 +5077,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5084,23 +5093,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
@@ -5108,10 +5117,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -5122,13 +5131,13 @@
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="AD20" s="6" t="s">
         <v>66</v>
@@ -5136,20 +5145,20 @@
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="13" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>121</v>
@@ -5160,38 +5169,38 @@
         <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -5199,10 +5208,10 @@
     </row>
     <row r="34" spans="1:28" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="24" customHeight="1">
@@ -5210,10 +5219,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1">
@@ -5221,20 +5230,20 @@
     </row>
     <row r="39" spans="1:28" ht="24" customHeight="1">
       <c r="A39" s="12" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="24" customHeight="1">
       <c r="B40" s="13" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>121</v>
@@ -5245,27 +5254,27 @@
         <v>61</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="24" customHeight="1">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="24" customHeight="1">
@@ -5273,10 +5282,10 @@
         <v>94</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="24" customHeight="1">
@@ -5284,10 +5293,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -5295,10 +5304,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -5306,10 +5315,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -5317,19 +5326,19 @@
         <v>61</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>66</v>
@@ -5337,23 +5346,23 @@
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
@@ -5361,10 +5370,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -5372,23 +5381,23 @@
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="13" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
@@ -5396,10 +5405,10 @@
         <v>46</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
@@ -5412,10 +5421,10 @@
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
@@ -5423,19 +5432,19 @@
         <v>61</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>66</v>
@@ -7410,17 +7419,17 @@
         <v>367</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7431,10 +7440,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="24" customHeight="1">
@@ -7442,7 +7451,7 @@
     </row>
     <row r="8" spans="1:40" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7453,10 +7462,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="24" customHeight="1">
@@ -7469,10 +7478,10 @@
     </row>
     <row r="13" spans="1:40" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="24" customHeight="1">
@@ -7480,10 +7489,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="24" customHeight="1">
@@ -7494,43 +7503,43 @@
     <row r="16" spans="1:40" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE16" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF16" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG16" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AI16" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ16" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL16" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>66</v>
@@ -7538,20 +7547,20 @@
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>45</v>
@@ -7562,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7573,10 +7582,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -7584,22 +7593,22 @@
         <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AD28" s="6" t="s">
         <v>66</v>
@@ -7607,10 +7616,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -7618,10 +7627,10 @@
         <v>61</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -7632,19 +7641,19 @@
     <row r="33" spans="1:32" ht="24" customHeight="1">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF33" s="6" t="s">
         <v>66</v>
@@ -7652,10 +7661,10 @@
     </row>
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="24" customHeight="1">
@@ -7663,10 +7672,10 @@
         <v>94</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="24" customHeight="1">
@@ -7674,10 +7683,10 @@
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="24" customHeight="1">
@@ -7685,10 +7694,10 @@
         <v>61</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
@@ -7699,10 +7708,10 @@
     <row r="42" spans="1:32" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>66</v>
@@ -7710,23 +7719,23 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:50" ht="24" customHeight="1">
@@ -7734,10 +7743,10 @@
         <v>61</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:50" ht="24" customHeight="1">
@@ -7748,34 +7757,34 @@
     <row r="51" spans="1:50" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF51" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH51" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI51" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ51" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK51" s="6" t="s">
         <v>66</v>
@@ -7783,10 +7792,10 @@
     </row>
     <row r="53" spans="1:50" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:50" ht="24" customHeight="1">
@@ -7794,10 +7803,10 @@
         <v>61</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:50" ht="24" customHeight="1">
@@ -7808,55 +7817,55 @@
     <row r="56" spans="1:50" ht="24" customHeight="1">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE56" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF56" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ56" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK56" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL56" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM56" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN56" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO56" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP56" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ56" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR56" s="6" t="s">
         <v>66</v>
@@ -7864,10 +7873,10 @@
     </row>
     <row r="58" spans="1:50" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:50" ht="24" customHeight="1">
@@ -7875,10 +7884,10 @@
         <v>61</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:50" ht="24" customHeight="1">
@@ -7889,73 +7898,73 @@
     <row r="61" spans="1:50" ht="24" customHeight="1">
       <c r="B61" s="11"/>
       <c r="AA61" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE61" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF61" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH61" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ61" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL61" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM61" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN61" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO61" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AP61" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AQ61" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AR61" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS61" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT61" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AU61" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AV61" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AW61" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AX61" s="6" t="s">
         <v>66</v>
@@ -7963,23 +7972,23 @@
     </row>
     <row r="64" spans="1:50" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="24" customHeight="1">
@@ -7987,10 +7996,10 @@
         <v>61</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
@@ -8001,25 +8010,25 @@
     <row r="70" spans="1:34" ht="24" customHeight="1">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AD70" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AE70" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF70" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG70" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH70" s="6" t="s">
         <v>66</v>
@@ -8027,10 +8036,10 @@
     </row>
     <row r="72" spans="1:34" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
@@ -8038,10 +8047,10 @@
         <v>61</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="24" customHeight="1">
@@ -8052,19 +8061,19 @@
     <row r="75" spans="1:34" ht="24" customHeight="1">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD75" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF75" s="6" t="s">
         <v>66</v>
@@ -8072,23 +8081,23 @@
     </row>
     <row r="78" spans="1:34" ht="24" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="24" customHeight="1">
       <c r="B79" s="13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
@@ -8096,10 +8105,10 @@
         <v>61</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8110,16 +8119,16 @@
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>66</v>
@@ -8127,10 +8136,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8138,10 +8147,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
@@ -8152,10 +8161,10 @@
     <row r="89" spans="1:31" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC89" s="6" t="s">
         <v>66</v>
@@ -8163,23 +8172,23 @@
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="24" customHeight="1">
       <c r="B93" s="13" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8187,22 +8196,22 @@
         <v>61</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:33" ht="24" customHeight="1">
       <c r="B97" s="11"/>
       <c r="AA97" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB97" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AD97" s="6" t="s">
         <v>66</v>
@@ -8210,23 +8219,23 @@
     </row>
     <row r="100" spans="1:33" ht="24" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101" spans="1:33" ht="24" customHeight="1">
       <c r="B101" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:33" ht="24" customHeight="1">
@@ -8234,10 +8243,10 @@
         <v>61</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
@@ -8248,22 +8257,22 @@
     <row r="106" spans="1:33" ht="24" customHeight="1">
       <c r="B106" s="11"/>
       <c r="AA106" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB106" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD106" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE106" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF106" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG106" s="6" t="s">
         <v>66</v>
@@ -8271,10 +8280,10 @@
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="24" customHeight="1">
@@ -8282,10 +8291,10 @@
         <v>61</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
@@ -8296,19 +8305,19 @@
     <row r="111" spans="1:33" ht="24" customHeight="1">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB111" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC111" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD111" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE111" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF111" s="6" t="s">
         <v>66</v>
@@ -8316,20 +8325,20 @@
     </row>
     <row r="114" spans="1:32" ht="24" customHeight="1">
       <c r="A114" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:32" ht="24" customHeight="1">
       <c r="B115" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:32" ht="24" customHeight="1">
       <c r="A117" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>45</v>
@@ -8340,10 +8349,10 @@
         <v>46</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:32" ht="24" customHeight="1">
@@ -8351,10 +8360,10 @@
     </row>
     <row r="121" spans="1:32" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:32" ht="24" customHeight="1">
@@ -8362,22 +8371,22 @@
         <v>61</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:32" ht="24" customHeight="1">
       <c r="B123" s="11"/>
       <c r="AA123" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AB123" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AD123" s="6" t="s">
         <v>66</v>
@@ -8385,10 +8394,10 @@
     </row>
     <row r="125" spans="1:32" ht="24" customHeight="1">
       <c r="A125" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:32" ht="24" customHeight="1">
@@ -8396,10 +8405,10 @@
         <v>61</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:32" ht="24" customHeight="1">
@@ -8410,19 +8419,19 @@
     <row r="128" spans="1:32" ht="24" customHeight="1">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB128" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AC128" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AD128" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AE128" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF128" s="6" t="s">
         <v>66</v>
@@ -8430,10 +8439,10 @@
     </row>
     <row r="130" spans="1:29" ht="24" customHeight="1">
       <c r="A130" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:29" ht="24" customHeight="1">
@@ -8441,10 +8450,10 @@
         <v>94</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:29" ht="24" customHeight="1">
@@ -8452,10 +8461,10 @@
     </row>
     <row r="134" spans="1:29" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:29" ht="24" customHeight="1">
@@ -8463,10 +8472,10 @@
         <v>61</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:29" ht="24" customHeight="1">
@@ -8477,10 +8486,10 @@
     <row r="137" spans="1:29" ht="24" customHeight="1">
       <c r="B137" s="11"/>
       <c r="AA137" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AB137" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AC137" s="6" t="s">
         <v>66</v>
@@ -8488,23 +8497,23 @@
     </row>
     <row r="140" spans="1:29" ht="24" customHeight="1">
       <c r="A140" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:29" ht="24" customHeight="1">
       <c r="B141" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:29" ht="24" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:29" ht="24" customHeight="1">
@@ -8512,10 +8521,10 @@
         <v>61</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:50" ht="24" customHeight="1">
@@ -8526,34 +8535,34 @@
     <row r="146" spans="1:50" ht="24" customHeight="1">
       <c r="B146" s="11"/>
       <c r="AA146" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AB146" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AC146" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AD146" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AE146" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF146" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG146" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AI146" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ146" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK146" s="6" t="s">
         <v>66</v>
@@ -8561,10 +8570,10 @@
     </row>
     <row r="148" spans="1:50" ht="24" customHeight="1">
       <c r="A148" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:50" ht="24" customHeight="1">
@@ -8572,10 +8581,10 @@
         <v>61</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="150" spans="1:50" ht="24" customHeight="1">
@@ -8586,55 +8595,55 @@
     <row r="151" spans="1:50" ht="24" customHeight="1">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB151" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AD151" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AE151" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF151" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG151" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH151" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AI151" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AJ151" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK151" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL151" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM151" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN151" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO151" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AP151" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AQ151" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AR151" s="6" t="s">
         <v>66</v>
@@ -8642,10 +8651,10 @@
     </row>
     <row r="153" spans="1:50" ht="24" customHeight="1">
       <c r="A153" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:50" ht="24" customHeight="1">
@@ -8653,10 +8662,10 @@
         <v>61</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:50" ht="24" customHeight="1">
@@ -8667,73 +8676,73 @@
     <row r="156" spans="1:50" ht="24" customHeight="1">
       <c r="B156" s="11"/>
       <c r="AA156" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AB156" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AC156" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AD156" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AE156" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF156" s="6" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG156" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AI156" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ156" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK156" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL156" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM156" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN156" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO156" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AP156" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AQ156" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AR156" s="6" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AS156" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT156" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AU156" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AV156" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AW156" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AX156" s="6" t="s">
         <v>66</v>
@@ -8741,23 +8750,23 @@
     </row>
     <row r="159" spans="1:50" ht="24" customHeight="1">
       <c r="A159" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:50" ht="24" customHeight="1">
       <c r="B160" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:34" ht="24" customHeight="1">
       <c r="A162" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="1:34" ht="24" customHeight="1">
@@ -8765,10 +8774,10 @@
         <v>61</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="164" spans="1:34" ht="24" customHeight="1">
@@ -8779,25 +8788,25 @@
     <row r="165" spans="1:34" ht="24" customHeight="1">
       <c r="B165" s="11"/>
       <c r="AA165" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AB165" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AD165" s="6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AE165" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF165" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG165" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AH165" s="6" t="s">
         <v>66</v>
@@ -8805,10 +8814,10 @@
     </row>
     <row r="167" spans="1:34" ht="24" customHeight="1">
       <c r="A167" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:34" ht="24" customHeight="1">
@@ -8816,10 +8825,10 @@
         <v>61</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:34" ht="24" customHeight="1">
@@ -8830,19 +8839,19 @@
     <row r="170" spans="1:34" ht="24" customHeight="1">
       <c r="B170" s="11"/>
       <c r="AA170" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB170" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC170" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD170" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE170" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF170" s="6" t="s">
         <v>66</v>
@@ -8850,23 +8859,23 @@
     </row>
     <row r="173" spans="1:34" ht="24" customHeight="1">
       <c r="A173" s="12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="174" spans="1:34" ht="24" customHeight="1">
       <c r="B174" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="176" spans="1:34" ht="24" customHeight="1">
       <c r="A176" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="24" customHeight="1">
@@ -8874,10 +8883,10 @@
         <v>61</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="24" customHeight="1">
@@ -8888,16 +8897,16 @@
     <row r="179" spans="1:31" ht="24" customHeight="1">
       <c r="B179" s="11"/>
       <c r="AA179" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AB179" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AC179" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AD179" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AE179" s="6" t="s">
         <v>66</v>
@@ -8905,10 +8914,10 @@
     </row>
     <row r="181" spans="1:31" ht="24" customHeight="1">
       <c r="A181" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="24" customHeight="1">
@@ -8916,10 +8925,10 @@
         <v>61</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:31" ht="24" customHeight="1">
@@ -8930,10 +8939,10 @@
     <row r="184" spans="1:31" ht="24" customHeight="1">
       <c r="B184" s="11"/>
       <c r="AA184" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB184" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AC184" s="6" t="s">
         <v>66</v>
@@ -8941,23 +8950,23 @@
     </row>
     <row r="187" spans="1:31" ht="24" customHeight="1">
       <c r="A187" s="12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="24" customHeight="1">
       <c r="B188" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="190" spans="1:31" ht="24" customHeight="1">
       <c r="A190" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="24" customHeight="1">
@@ -8965,22 +8974,22 @@
         <v>61</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="24" customHeight="1">
       <c r="B192" s="11"/>
       <c r="AA192" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB192" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AC192" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AD192" s="6" t="s">
         <v>66</v>
@@ -8988,23 +8997,23 @@
     </row>
     <row r="195" spans="1:33" ht="24" customHeight="1">
       <c r="A195" s="12" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="196" spans="1:33" ht="24" customHeight="1">
       <c r="B196" s="13" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
@@ -9012,10 +9021,10 @@
         <v>61</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="200" spans="1:33" ht="24" customHeight="1">
@@ -9026,22 +9035,22 @@
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="B201" s="11"/>
       <c r="AA201" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB201" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC201" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AD201" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AE201" s="6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF201" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG201" s="6" t="s">
         <v>66</v>
@@ -9049,10 +9058,10 @@
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
@@ -9060,10 +9069,10 @@
         <v>61</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="205" spans="1:33" ht="24" customHeight="1">
@@ -9074,19 +9083,19 @@
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="B206" s="11"/>
       <c r="AA206" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB206" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AC206" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD206" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AE206" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF206" s="6" t="s">
         <v>66</v>
@@ -9202,20 +9211,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9226,10 +9235,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9237,7 +9246,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -9248,10 +9257,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9264,20 +9273,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>283</v>
@@ -9288,22 +9297,22 @@
         <v>61</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="24" customHeight="1">
       <c r="B19" s="11"/>
       <c r="AA19" s="6" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>66</v>
@@ -9311,7 +9320,7 @@
     </row>
     <row r="21" spans="1:37" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>170</v>
@@ -9322,10 +9331,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="24" customHeight="1">
@@ -9336,34 +9345,34 @@
     <row r="24" spans="1:37" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE24" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK24" s="6" t="s">
         <v>66</v>
@@ -9371,10 +9380,10 @@
     </row>
     <row r="26" spans="1:37" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="24" customHeight="1">
@@ -9382,10 +9391,10 @@
         <v>94</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="24" customHeight="1">
@@ -9393,10 +9402,10 @@
     </row>
     <row r="30" spans="1:37" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="24" customHeight="1">
@@ -9404,10 +9413,10 @@
         <v>99</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="24" customHeight="1">
@@ -9415,20 +9424,20 @@
     </row>
     <row r="35" spans="1:30" ht="24" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="24" customHeight="1">
       <c r="B36" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>283</v>
@@ -9439,10 +9448,10 @@
         <v>46</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="24" customHeight="1">
@@ -9450,7 +9459,7 @@
     </row>
     <row r="42" spans="1:30" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>170</v>
@@ -9461,10 +9470,10 @@
         <v>61</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="24" customHeight="1">
@@ -9475,13 +9484,13 @@
     <row r="45" spans="1:30" ht="24" customHeight="1">
       <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>66</v>
@@ -9489,7 +9498,7 @@
     </row>
     <row r="47" spans="1:30" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>176</v>
@@ -9500,10 +9509,10 @@
         <v>61</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="24" customHeight="1">
@@ -9514,19 +9523,19 @@
     <row r="50" spans="1:36" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>411</v>
+        <v>668</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AE50" s="6" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AF50" s="6" t="s">
         <v>66</v>
@@ -9534,10 +9543,10 @@
     </row>
     <row r="52" spans="1:36" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="53" spans="1:36" ht="24" customHeight="1">
@@ -9545,10 +9554,10 @@
         <v>61</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="24" customHeight="1">
@@ -9559,31 +9568,31 @@
     <row r="55" spans="1:36" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AJ55" s="6" t="s">
         <v>66</v>
@@ -9591,10 +9600,10 @@
     </row>
     <row r="57" spans="1:36" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:36" ht="24" customHeight="1">
@@ -9602,10 +9611,10 @@
         <v>61</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:36" ht="24" customHeight="1">
@@ -9616,13 +9625,13 @@
     <row r="60" spans="1:36" ht="24" customHeight="1">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AD60" s="6" t="s">
         <v>66</v>
@@ -9630,20 +9639,20 @@
     </row>
     <row r="63" spans="1:36" ht="24" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="24" customHeight="1">
       <c r="B64" s="13" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>283</v>
@@ -9654,10 +9663,10 @@
         <v>46</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -9665,7 +9674,7 @@
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>170</v>
@@ -9676,10 +9685,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -9690,10 +9699,10 @@
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>66</v>
@@ -9701,7 +9710,7 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>176</v>
@@ -9712,22 +9721,22 @@
         <v>61</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AD77" s="6" t="s">
         <v>66</v>
@@ -9735,10 +9744,10 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
@@ -9746,10 +9755,10 @@
         <v>61</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
@@ -9760,19 +9769,19 @@
     <row r="82" spans="1:32" ht="24" customHeight="1">
       <c r="B82" s="11"/>
       <c r="AA82" s="6" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AC82" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AE82" s="6" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AF82" s="6" t="s">
         <v>66</v>
@@ -9780,10 +9789,10 @@
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
@@ -9791,10 +9800,10 @@
         <v>61</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -9805,13 +9814,13 @@
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>66</v>
@@ -9876,20 +9885,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -9900,10 +9909,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -9911,7 +9920,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -9922,10 +9931,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -9938,20 +9947,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>283</v>
@@ -9962,10 +9971,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -9973,10 +9982,10 @@
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
@@ -9984,10 +9993,10 @@
         <v>61</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -9998,16 +10007,16 @@
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="AE24" s="6" t="s">
         <v>66</v>
@@ -10015,20 +10024,20 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>283</v>
@@ -10039,10 +10048,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
@@ -10050,10 +10059,10 @@
     </row>
     <row r="34" spans="1:35" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="24" customHeight="1">
@@ -10061,10 +10070,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="24" customHeight="1">
@@ -10075,28 +10084,28 @@
     <row r="37" spans="1:35" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="AE37" s="6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AH37" s="6" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AI37" s="6" t="s">
         <v>66</v>
@@ -10131,20 +10140,20 @@
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -10155,10 +10164,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
@@ -10166,7 +10175,7 @@
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -10177,10 +10186,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
@@ -10193,7 +10202,7 @@
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>170</v>
@@ -10204,10 +10213,10 @@
         <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
@@ -10218,10 +10227,10 @@
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>66</v>
@@ -10229,10 +10238,10 @@
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
@@ -10240,10 +10249,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
@@ -10251,10 +10260,10 @@
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
@@ -10262,10 +10271,10 @@
         <v>61</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
@@ -10276,13 +10285,13 @@
     <row r="25" spans="1:34" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>66</v>
@@ -10290,7 +10299,7 @@
     </row>
     <row r="27" spans="1:34" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>240</v>
@@ -10301,10 +10310,10 @@
         <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="24" customHeight="1">
@@ -10315,25 +10324,25 @@
     <row r="30" spans="1:34" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="AF30" s="6" t="s">
-        <v>518</v>
+        <v>782</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="AH30" s="6" t="s">
         <v>66</v>
@@ -10341,10 +10350,10 @@
     </row>
     <row r="32" spans="1:34" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="24" customHeight="1">
@@ -10352,10 +10361,10 @@
         <v>61</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="24" customHeight="1">
@@ -10366,43 +10375,43 @@
     <row r="35" spans="1:32" ht="24" customHeight="1">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="24" customHeight="1">
       <c r="B39" s="13" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="24" customHeight="1">
@@ -10410,25 +10419,25 @@
         <v>61</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="24" customHeight="1">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="AE43" s="6" t="s">
         <v>66</v>
@@ -10436,10 +10445,10 @@
     </row>
     <row r="45" spans="1:32" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="24" customHeight="1">
@@ -10447,10 +10456,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="24" customHeight="1">
@@ -10458,20 +10467,20 @@
     </row>
     <row r="50" spans="1:28" ht="24" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="24" customHeight="1">
       <c r="B51" s="13" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>121</v>
@@ -10482,27 +10491,27 @@
         <v>61</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="24" customHeight="1">
@@ -10510,10 +10519,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="24" customHeight="1">
@@ -10521,10 +10530,10 @@
     </row>
     <row r="61" spans="1:28" ht="24" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="24" customHeight="1">
@@ -10532,10 +10541,10 @@
         <v>94</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="24" customHeight="1">
@@ -10543,10 +10552,10 @@
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
@@ -10554,10 +10563,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
@@ -10568,31 +10577,31 @@
     <row r="68" spans="1:29" ht="24" customHeight="1">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="24" customHeight="1">
       <c r="B72" s="13" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>121</v>
@@ -10603,27 +10612,27 @@
         <v>61</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
@@ -10631,10 +10640,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="24" customHeight="1">
@@ -10642,10 +10651,10 @@
     </row>
     <row r="82" spans="1:29" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="1:29" ht="24" customHeight="1">
@@ -10653,10 +10662,10 @@
         <v>94</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="84" spans="1:29" ht="24" customHeight="1">
@@ -10664,10 +10673,10 @@
     </row>
     <row r="86" spans="1:29" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="24" customHeight="1">
@@ -10675,10 +10684,10 @@
         <v>61</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="24" customHeight="1">
@@ -10689,13 +10698,13 @@
     <row r="89" spans="1:29" ht="24" customHeight="1">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
+++ b/cmip6/models/cmcc-cm2-vhr4/cmip6_cmcc_cmcc-cm2-vhr4_atmos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielepeano/Documents/ES-Doc/HR4-VHR4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AACFC4-B39C-4F41-9C4B-D329222B857F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27340" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -20,12 +26,17 @@
     <sheet name="9. Gravity Waves" sheetId="11" r:id="rId11"/>
     <sheet name="10. Natural Forcing" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1132">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -45,7 +56,7 @@
     <t>Model</t>
   </si>
   <si>
-    <t>CMCC-CM2-VHR4</t>
+    <t>CMCC-CM2-HR4</t>
   </si>
   <si>
     <t>Realm / Topic</t>
@@ -1911,12 +1922,12 @@
     <t>cmip6.atmos.turbulence_convection.boundary_layer_turbulence.scheme_name</t>
   </si>
   <si>
+    <t>Holtslag-Boville</t>
+  </si>
+  <si>
     <t>Mellor-Yamada</t>
   </si>
   <si>
-    <t>Holtslag-Boville</t>
-  </si>
-  <si>
     <t>EDMF: Combined Eddy Diffusivity Mass-Flux</t>
   </si>
   <si>
@@ -2010,15 +2021,15 @@
     <t>cmip6.atmos.turbulence_convection.deep_convection.scheme_type</t>
   </si>
   <si>
+    <t>plume ensemble: Zhang-McFarlane</t>
+  </si>
+  <si>
     <t>mass-flux</t>
   </si>
   <si>
     <t>adjustment</t>
   </si>
   <si>
-    <t>plume ensemble: Zhang-McFarlane</t>
-  </si>
-  <si>
     <t>5.3.1.3 *</t>
   </si>
   <si>
@@ -3283,25 +3294,170 @@
   </si>
   <si>
     <t>stratospheric aerosols optical thickness</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>PEANO-DANIELE</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>SCOCCIMARRO-ENRICO</t>
+  </si>
+  <si>
+    <t>Point of Contact</t>
+  </si>
+  <si>
+    <t>BELLUCCI-ALESSIO</t>
+  </si>
+  <si>
+    <t>Community Atmosphere Model version 4 (CAM4)</t>
+  </si>
+  <si>
+    <t>CAM, finite-volume</t>
+  </si>
+  <si>
+    <t>Craig_2012</t>
+  </si>
+  <si>
+    <t>Neale_2010</t>
+  </si>
+  <si>
+    <t>Finite Volume regular grid (f09)</t>
+  </si>
+  <si>
+    <t>Finite Volume (FV)</t>
+  </si>
+  <si>
+    <t>In the FV dynamical core the discretization is local and entirely in physical space. The horizontal discretization is based on a conservative “flux-form semi-Lagrangian” scheme described by Lin-Rood_1996 and Lin-Rood_1997. The vertical discretization can be best described as Lagrangian with a conservative re-mapping, which essentially makes it quasi-Lagrangian. FV dynamics and physics are “time split” in the sense that all prognostic variables are updated sequentially by the “dynamics” and then the “physics”. The time integration within the FV dynamics is fully explicit, with sub-cycling within the 2D Lagrangian dynamics to stabilize the fastest wave.</t>
+  </si>
+  <si>
+    <t>Lin-Rood_1996</t>
+  </si>
+  <si>
+    <t>Lin-Rood_1997</t>
+  </si>
+  <si>
+    <t>In CAM 4.0, insolation is computed using the method of Berger_1978. 
+For shortwave radiation, the δ-Eddington approximation of Joseph_1976 and Coakley_1983 has been
+adopted and is described in Briegleb_1992. 
+The method employed in the CAM 4.0 to represent longwave radiative transfer is based on an absorptivity/emissivity formulation Ramanathan-Downey_1986.</t>
+  </si>
+  <si>
+    <t>Berger_1978</t>
+  </si>
+  <si>
+    <t>Joseph_1976</t>
+  </si>
+  <si>
+    <t>Coakley_1983</t>
+  </si>
+  <si>
+    <t>Briegleb_1992</t>
+  </si>
+  <si>
+    <t>Ramanathan-Downey_1986</t>
+  </si>
+  <si>
+    <t>Holtslag-Boville_1993</t>
+  </si>
+  <si>
+    <t>Zhang-McFarlane_1995</t>
+  </si>
+  <si>
+    <t>Richter-Rasch_2008</t>
+  </si>
+  <si>
+    <t>The turbulence parameterization in CAM 4.0 includes computation of diffusivities for the free atmosphere, based on the gradient Richardson number, and an explicit, non-local Atmospheric Boundary Layer (ABL) parameterization. The ABL parameterization includes a determination of the boundary layer depth. In practice, the free atmosphere diffusivities are calculated first at all levels. The ABL scheme then determines the ABL depth and diffusivities and replaces the free atmosphere values for all levels within the ABL, returning both the updated diffusivities and the non-local transport terms. The implementation of the ABL parameterization in CCM2 is discussed in Holtslag-Boville_1993.   
+The process of deep convection is treated with a parameterization scheme developed by Zhang-McFarlane_1995 and modified with the addition of convective momentum transports by Richter-Rasch_2008 and a modified dilute plume calculation following Raymond-Blyth_1986, Raymond-Blyth_1992. The scheme is based on a plume ensemble approach where it is assumed that an ensemble of convective scale updrafts (and the associated saturated down-drafts) may exist whenever the atmosphere is conditionally unstable in the lower troposphere.
+The updraft ensemble is comprised of plumes sufficiently buoyant so as to penetrate the unstable layer, where all plumes have the same upward mass flux at the bottom of the convective layer.
+Moist convection occurs only when there is convective available potential energy (CAPE) for which parcel ascent from the sub-cloud layer acts to destroy the CAPE at an exponential rateusing a specified adjustment time scale.</t>
+  </si>
+  <si>
+    <t>Raymond-Blyth_1986</t>
+  </si>
+  <si>
+    <t>Raymond-Blyth_1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameterization of non-convective cloud processes in CAM 4.0 is described in Rasch-Kristjansson_1998 and Zhang_2003. The original formulation is introduced in Rasch-Kristjansson_1998. Revisions to the parameterization to deal more realistically with the treatment of the condensation and evaporation under forcing by large scale processes and changing cloud fraction are described in Zhang_2003. </t>
+  </si>
+  <si>
+    <t>Rasch-Kristjansson_1998</t>
+  </si>
+  <si>
+    <t>Zhang_2003</t>
+  </si>
+  <si>
+    <t>Cloud amount (or cloud fraction), and the associated optical properties, are evaluated via a diagnostic method in CAM 4.0. The diagnosis of cloud fraction is a generalization of the scheme introduced by Slingo_1987, with variations described in Hack_1993; Kiehl_1998, and Rasch-Kristjansson_1998. Cloud fraction depends on relative humidity, atmospheric stability, water vapor and convective mass fluxes. Three types of cloud are diagnosed by the scheme: low-level marine stratus, convective cloud, and layered cloud. Layered clouds form when the relative humidity exceeds a threshold value which varies according to pressure</t>
+  </si>
+  <si>
+    <t>Slingo_1987</t>
+  </si>
+  <si>
+    <t>Hack_1993</t>
+  </si>
+  <si>
+    <t>Kiehl_1998</t>
+  </si>
+  <si>
+    <t>CAM4 incorporates a parameterization for a spectrum of vertically propagating internal gravity waves based on the work of Lindzen_1981, Holton_1982, Garcia-Solomon_1985 and McFarlane_1987. The parameterization solves separately for a general spectrum of monochromatic waves and for a single stationary wave generated by flow over orography, following McFarlane_1987.</t>
+  </si>
+  <si>
+    <t>Lindzen_1981</t>
+  </si>
+  <si>
+    <t>Holton_1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia-Solomon_1985 </t>
+  </si>
+  <si>
+    <t>McFarlane_1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A time series of the solar constant for 1870-2100 based upon Lean_1995 </t>
+  </si>
+  <si>
+    <t>Lean_1995</t>
+  </si>
+  <si>
+    <t>The atmospheric model is the CAM in its version 4 (CAM4, Neale_2010). A finite-volume dynamical core at approximately 0.25 degree resolution is used. The vertical structure of CAM consists of 26 vertical levels. CAM is coupled to the other components through the CPL7 coupler (Craig_2012).</t>
+  </si>
+  <si>
+    <t>f02</t>
+  </si>
+  <si>
+    <t>0.23 x 0.31 degrees lat-lon</t>
+  </si>
+  <si>
+    <t>Uniform 0.23 x 0.31 degrees lat-lon</t>
+  </si>
+  <si>
+    <t>CAM4 is run at a horizontal resolution of about 0.25°, with a regular grid of 0.23° × 0.31°. CAM has 26 vertical hybrid levels.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3309,6 +3465,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3316,24 +3473,28 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3341,13 +3502,15 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -3355,13 +3518,46 @@
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -3369,29 +3565,8 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3401,19 +3576,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF337AB7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF003366"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3435,7 +3616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3479,12 +3660,91 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF337AB7"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3499,44 +3759,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3563,14 +3823,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3597,6 +3875,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3608,188 +3904,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3797,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,7 +4077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +4093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3829,52 +4101,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3882,7 +4154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3898,7 +4170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3906,13 +4178,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3920,28 +4192,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>844</v>
       </c>
@@ -3949,12 +4224,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>847</v>
       </c>
@@ -3962,7 +4237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -3973,10 +4248,10 @@
         <v>849</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>850</v>
       </c>
@@ -3984,7 +4259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -3995,15 +4270,15 @@
         <v>852</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>853</v>
       </c>
@@ -4011,12 +4286,12 @@
         <v>854</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>856</v>
       </c>
@@ -4024,7 +4299,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -4035,12 +4310,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
         <v>860</v>
@@ -4055,7 +4330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>863</v>
       </c>
@@ -4063,7 +4338,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
@@ -4074,7 +4349,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
         <v>867</v>
@@ -4086,7 +4361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>869</v>
       </c>
@@ -4094,12 +4369,12 @@
         <v>870</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>872</v>
       </c>
@@ -4107,7 +4382,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>61</v>
       </c>
@@ -4118,7 +4393,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
         <v>876</v>
@@ -4130,7 +4405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
+    <row r="34" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>878</v>
       </c>
@@ -4138,7 +4413,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>94</v>
       </c>
@@ -4149,10 +4424,10 @@
         <v>881</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
+    <row r="38" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>882</v>
       </c>
@@ -4160,7 +4435,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>94</v>
       </c>
@@ -4171,10 +4446,10 @@
         <v>885</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="11"/>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
+    <row r="42" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>886</v>
       </c>
@@ -4182,7 +4457,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>94</v>
       </c>
@@ -4193,10 +4468,10 @@
         <v>889</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>890</v>
       </c>
@@ -4204,12 +4479,12 @@
         <v>891</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1">
+    <row r="50" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>893</v>
       </c>
@@ -4217,7 +4492,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
+    <row r="51" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>895</v>
       </c>
@@ -4228,10 +4503,10 @@
         <v>897</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
+    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
     </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
+    <row r="54" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>898</v>
       </c>
@@ -4239,7 +4514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="24" customHeight="1">
+    <row r="55" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>61</v>
       </c>
@@ -4250,7 +4525,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
+    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
         <v>901</v>
@@ -4262,7 +4537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
+    <row r="58" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>903</v>
       </c>
@@ -4270,7 +4545,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="24" customHeight="1">
+    <row r="59" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>99</v>
       </c>
@@ -4281,10 +4556,10 @@
         <v>906</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1">
+    <row r="60" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
     </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
+    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>907</v>
       </c>
@@ -4292,7 +4567,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
+    <row r="63" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>99</v>
       </c>
@@ -4303,10 +4578,10 @@
         <v>910</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="24" customHeight="1">
+    <row r="64" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
     </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
+    <row r="67" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>911</v>
       </c>
@@ -4314,12 +4589,12 @@
         <v>912</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="24" customHeight="1">
+    <row r="68" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
+    <row r="70" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>914</v>
       </c>
@@ -4327,7 +4602,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
+    <row r="71" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>61</v>
       </c>
@@ -4338,7 +4613,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
+    <row r="72" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
         <v>918</v>
@@ -4350,7 +4625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
+    <row r="74" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>920</v>
       </c>
@@ -4358,7 +4633,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
+    <row r="75" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>61</v>
       </c>
@@ -4369,12 +4644,12 @@
         <v>923</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
+    <row r="76" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="24" customHeight="1">
+    <row r="77" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
         <v>924</v>
@@ -4387,64 +4662,50 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B32 B24 B77 B56" xr:uid="{00000000-0002-0000-0900-000000000000}">
+      <formula1>AA24:AC24</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>AA20:AD20</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AC24</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64 B60" xr:uid="{00000000-0002-0000-0900-000003000000}">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AC32</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36 B44 B40" xr:uid="{00000000-0002-0000-0900-000007000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>AA56:AC56</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AC77</formula1>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52" xr:uid="{00000000-0002-0000-0900-00000A000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AMK76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="24" customHeight="1">
+    <row r="1" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>925</v>
       </c>
@@ -4452,12 +4713,12 @@
         <v>926</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1">
+    <row r="2" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="24" customHeight="1">
+    <row r="4" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>928</v>
       </c>
@@ -4465,7 +4726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="24" customHeight="1">
+    <row r="5" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -4476,10 +4737,10 @@
         <v>930</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="24" customHeight="1">
+    <row r="6" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:29" ht="24" customHeight="1">
+    <row r="8" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>931</v>
       </c>
@@ -4487,7 +4748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="24" customHeight="1">
+    <row r="9" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -4498,15 +4759,17 @@
         <v>933</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="24" customHeight="1">
+    <row r="10" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:29" ht="24" customHeight="1">
+    <row r="11" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>934</v>
       </c>
@@ -4514,7 +4777,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="24" customHeight="1">
+    <row r="14" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>61</v>
       </c>
@@ -4525,7 +4788,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="24" customHeight="1">
+    <row r="15" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="AA15" s="6" t="s">
         <v>938</v>
@@ -4537,7 +4800,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>940</v>
       </c>
@@ -4545,7 +4808,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -4556,8 +4819,10 @@
         <v>943</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>945</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>944</v>
       </c>
@@ -4568,7 +4833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
+    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>946</v>
       </c>
@@ -4576,7 +4841,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
@@ -4587,13 +4852,15 @@
         <v>949</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>950</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>950</v>
       </c>
@@ -4607,7 +4874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>953</v>
       </c>
@@ -4615,12 +4882,12 @@
         <v>954</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>956</v>
       </c>
@@ -4628,7 +4895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -4639,10 +4906,12 @@
         <v>958</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
-    </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>959</v>
       </c>
@@ -4650,7 +4919,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="24" customHeight="1">
+    <row r="35" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>61</v>
       </c>
@@ -4661,13 +4930,15 @@
         <v>962</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
+    <row r="36" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+    <row r="37" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>963</v>
+      </c>
       <c r="AA37" s="6" t="s">
         <v>963</v>
       </c>
@@ -4687,7 +4958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="24" customHeight="1">
+    <row r="39" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>968</v>
       </c>
@@ -4695,7 +4966,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
+    <row r="40" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>61</v>
       </c>
@@ -4706,12 +4977,12 @@
         <v>971</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
+    <row r="41" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
+    <row r="42" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
         <v>972</v>
@@ -4723,7 +4994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
+    <row r="44" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>974</v>
       </c>
@@ -4731,7 +5002,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
+    <row r="45" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -4742,8 +5013,10 @@
         <v>977</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
+    <row r="46" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="11" t="s">
+        <v>978</v>
+      </c>
       <c r="AA46" s="6" t="s">
         <v>978</v>
       </c>
@@ -4757,7 +5030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
+    <row r="48" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>981</v>
       </c>
@@ -4765,7 +5038,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="24" customHeight="1">
+    <row r="49" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>61</v>
       </c>
@@ -4776,7 +5049,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="24" customHeight="1">
+    <row r="50" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
         <v>985</v>
@@ -4797,7 +5070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="24" customHeight="1">
+    <row r="53" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>988</v>
       </c>
@@ -4805,12 +5078,12 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="24" customHeight="1">
+    <row r="54" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="24" customHeight="1">
+    <row r="56" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>991</v>
       </c>
@@ -4818,7 +5091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="24" customHeight="1">
+    <row r="57" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>46</v>
       </c>
@@ -4829,10 +5102,10 @@
         <v>993</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="24" customHeight="1">
+    <row r="58" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
     </row>
-    <row r="60" spans="1:32" ht="24" customHeight="1">
+    <row r="60" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>994</v>
       </c>
@@ -4840,7 +5113,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="24" customHeight="1">
+    <row r="61" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>61</v>
       </c>
@@ -4851,12 +5124,12 @@
         <v>996</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="24" customHeight="1">
+    <row r="62" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="24" customHeight="1">
+    <row r="63" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
       <c r="AA63" s="6" t="s">
         <v>997</v>
@@ -4871,7 +5144,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
+    <row r="65" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>1000</v>
       </c>
@@ -4879,7 +5152,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
+    <row r="66" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>61</v>
       </c>
@@ -4890,12 +5163,12 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
+    <row r="67" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
+    <row r="68" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
         <v>1003</v>
@@ -4904,7 +5177,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
+    <row r="70" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>1005</v>
       </c>
@@ -4912,7 +5185,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="24" customHeight="1">
+    <row r="71" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>61</v>
       </c>
@@ -4923,7 +5196,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
+    <row r="72" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="11"/>
       <c r="AA72" s="6" t="s">
         <v>978</v>
@@ -4935,7 +5208,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
+    <row r="74" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>1008</v>
       </c>
@@ -4943,7 +5216,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="24" customHeight="1">
+    <row r="75" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>61</v>
       </c>
@@ -4954,7 +5227,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="24" customHeight="1">
+    <row r="76" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
         <v>985</v>
@@ -4976,60 +5249,46 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B72 B42 B19" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>AA15:AC15</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>AA19:AC19</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B63 B46" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+      <formula1>AA24:AD24</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AD24</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B76 B50" xr:uid="{00000000-0002-0000-0A00-000003000000}">
+      <formula1>AA37:AF37</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AF37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AC42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AD46</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AF50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68" xr:uid="{00000000-0002-0000-0A00-000008000000}">
       <formula1>AA68:AB68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AF76</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1011</v>
       </c>
@@ -5037,12 +5296,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1014</v>
       </c>
@@ -5050,7 +5309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5061,10 +5320,10 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>1017</v>
       </c>
@@ -5072,7 +5331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -5083,15 +5342,15 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>1020</v>
       </c>
@@ -5099,12 +5358,12 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>1023</v>
       </c>
@@ -5112,7 +5371,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -5123,12 +5382,12 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
         <v>1027</v>
@@ -5143,7 +5402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>1030</v>
       </c>
@@ -5151,12 +5410,12 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>1033</v>
       </c>
@@ -5164,7 +5423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -5175,7 +5434,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
         <v>1036</v>
@@ -5184,7 +5443,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>1038</v>
       </c>
@@ -5192,7 +5451,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>895</v>
       </c>
@@ -5203,10 +5462,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:28" ht="24" customHeight="1">
+    <row r="34" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>1042</v>
       </c>
@@ -5214,7 +5473,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="24" customHeight="1">
+    <row r="35" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -5225,10 +5484,12 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
-    </row>
-    <row r="39" spans="1:28" ht="24" customHeight="1">
+    <row r="36" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>1046</v>
       </c>
@@ -5236,12 +5497,12 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="24" customHeight="1">
+    <row r="40" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="24" customHeight="1">
+    <row r="42" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>1049</v>
       </c>
@@ -5249,7 +5510,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="24" customHeight="1">
+    <row r="43" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -5260,8 +5521,10 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
+    <row r="44" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>1037</v>
+      </c>
       <c r="AA44" s="6" t="s">
         <v>1036</v>
       </c>
@@ -5269,7 +5532,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="24" customHeight="1">
+    <row r="46" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>1052</v>
       </c>
@@ -5277,7 +5540,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="24" customHeight="1">
+    <row r="47" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>94</v>
       </c>
@@ -5288,10 +5551,10 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="24" customHeight="1">
+    <row r="48" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="11"/>
     </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1">
+    <row r="50" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>1056</v>
       </c>
@@ -5299,7 +5562,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="24" customHeight="1">
+    <row r="51" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>46</v>
       </c>
@@ -5310,10 +5573,10 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
+    <row r="52" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
     </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
+    <row r="54" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>1060</v>
       </c>
@@ -5321,7 +5584,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="24" customHeight="1">
+    <row r="55" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>61</v>
       </c>
@@ -5332,8 +5595,10 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+    <row r="56" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>1064</v>
+      </c>
       <c r="AA56" s="6" t="s">
         <v>1064</v>
       </c>
@@ -5344,7 +5609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="24" customHeight="1">
+    <row r="59" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>1066</v>
       </c>
@@ -5352,12 +5617,12 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1">
+    <row r="60" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
+    <row r="62" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>1069</v>
       </c>
@@ -5365,7 +5630,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="24" customHeight="1">
+    <row r="63" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>99</v>
       </c>
@@ -5376,10 +5641,12 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="24" customHeight="1">
-      <c r="B64" s="11"/>
-    </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
+    <row r="64" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>1073</v>
       </c>
@@ -5387,12 +5654,12 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="24" customHeight="1">
+    <row r="68" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
+    <row r="70" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>1076</v>
       </c>
@@ -5400,7 +5667,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
+    <row r="71" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>46</v>
       </c>
@@ -5411,15 +5678,15 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
+    <row r="72" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="178" customHeight="1">
+    <row r="73" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
+    <row r="75" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>1080</v>
       </c>
@@ -5427,7 +5694,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
+    <row r="76" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>61</v>
       </c>
@@ -5438,7 +5705,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="24" customHeight="1">
+    <row r="77" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
         <v>1084</v>
@@ -5451,78 +5718,80 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B77" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+      <formula1>AA56:AC56</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>AA20:AD20</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B44" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>AA28:AB28</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0B00-000003000000}">
+      <formula1>-1000000</formula1>
+      <formula2>1000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>AA44:AB44</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0B00-000005000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>AA56:AC56</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64" xr:uid="{00000000-0002-0000-0B00-000006000000}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AC77</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
@@ -5530,70 +5799,303 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B12" xr:uid="{F724D485-9EA8-0645-8C3A-0E824A8BD18C}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B45" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Grid,Dynamical Core,Radiation,Turbulence Convection,Microphysics Precipitation,Cloud Scheme,Observation Simulation,Gravity Waves,Natural Forcing"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMK106"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -5601,12 +6103,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -5614,7 +6116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -5625,10 +6127,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -5636,7 +6140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -5647,15 +6151,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>54</v>
       </c>
@@ -5663,7 +6169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -5674,15 +6180,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
-    <row r="18" spans="1:33" ht="24" customHeight="1">
+    <row r="16" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -5690,7 +6198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="24" customHeight="1">
+    <row r="19" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>61</v>
       </c>
@@ -5701,8 +6209,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>64</v>
       </c>
@@ -5713,7 +6223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="24" customHeight="1">
+    <row r="22" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -5721,7 +6231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="24" customHeight="1">
+    <row r="23" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
@@ -5732,13 +6242,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="24" customHeight="1">
+    <row r="24" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="AA25" s="6" t="s">
         <v>71</v>
       </c>
@@ -5761,7 +6273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="24" customHeight="1">
+    <row r="28" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>77</v>
       </c>
@@ -5769,12 +6281,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="24" customHeight="1">
+    <row r="29" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="24" customHeight="1">
+    <row r="31" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>80</v>
       </c>
@@ -5782,7 +6294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="24" customHeight="1">
+    <row r="32" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>46</v>
       </c>
@@ -5793,10 +6305,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
+    <row r="33" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>84</v>
       </c>
@@ -5804,7 +6318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
+    <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
@@ -5815,10 +6329,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
+    <row r="37" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>88</v>
       </c>
@@ -5826,7 +6342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24" customHeight="1">
+    <row r="40" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
@@ -5837,10 +6353,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
+    <row r="41" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
@@ -5848,7 +6366,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
+    <row r="44" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>94</v>
       </c>
@@ -5859,10 +6377,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
+    <row r="45" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
@@ -5870,7 +6390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
+    <row r="48" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>99</v>
       </c>
@@ -5881,10 +6401,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
+    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>102</v>
       </c>
@@ -5892,12 +6414,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
+    <row r="53" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="55" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>105</v>
       </c>
@@ -5905,7 +6427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+    <row r="56" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>94</v>
       </c>
@@ -5916,10 +6438,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
+    <row r="57" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
     </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+    <row r="59" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>109</v>
       </c>
@@ -5927,7 +6449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+    <row r="60" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>94</v>
       </c>
@@ -5938,10 +6460,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
+    <row r="61" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+    <row r="63" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>113</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+    <row r="64" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>94</v>
       </c>
@@ -5960,10 +6482,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="24" customHeight="1">
+    <row r="65" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
     </row>
-    <row r="68" spans="1:31" ht="24" customHeight="1">
+    <row r="68" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>117</v>
       </c>
@@ -5971,12 +6493,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="24" customHeight="1">
+    <row r="69" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="24" customHeight="1">
+    <row r="71" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>120</v>
       </c>
@@ -5984,7 +6506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="24" customHeight="1">
+    <row r="72" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>61</v>
       </c>
@@ -5995,8 +6517,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="AA73" s="6" t="s">
         <v>124</v>
       </c>
@@ -6007,7 +6531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="24" customHeight="1">
+    <row r="75" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>126</v>
       </c>
@@ -6015,7 +6539,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="24" customHeight="1">
+    <row r="76" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>61</v>
       </c>
@@ -6026,12 +6550,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="24" customHeight="1">
+    <row r="77" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="24" customHeight="1">
+    <row r="78" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
         <v>130</v>
@@ -6049,7 +6573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="24" customHeight="1">
+    <row r="80" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>134</v>
       </c>
@@ -6057,7 +6581,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
+    <row r="81" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
         <v>46</v>
       </c>
@@ -6068,10 +6592,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
+    <row r="82" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
+    <row r="85" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>138</v>
       </c>
@@ -6079,12 +6603,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
+    <row r="86" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
+    <row r="88" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>141</v>
       </c>
@@ -6092,7 +6616,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
+    <row r="89" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>46</v>
       </c>
@@ -6103,15 +6627,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
+    <row r="90" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="178" customHeight="1">
+    <row r="91" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
     </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
+    <row r="93" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>145</v>
       </c>
@@ -6119,7 +6643,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
+    <row r="94" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>46</v>
       </c>
@@ -6130,15 +6654,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
+    <row r="95" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
+    <row r="96" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
     </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
+    <row r="98" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>149</v>
       </c>
@@ -6146,7 +6670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    <row r="99" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
         <v>46</v>
       </c>
@@ -6157,15 +6681,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
+    <row r="100" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
+    <row r="101" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
+    <row r="103" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>153</v>
       </c>
@@ -6173,7 +6697,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
+    <row r="104" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>46</v>
       </c>
@@ -6184,63 +6708,59 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
+    <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
+    <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B73" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA20:AC20</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>AA25:AG25</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 B65 B61 B57" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>AA78:AE78</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AMK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
@@ -6248,12 +6768,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>160</v>
       </c>
@@ -6261,7 +6781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6272,10 +6792,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>163</v>
       </c>
@@ -6283,7 +6805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -6294,15 +6816,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>166</v>
       </c>
@@ -6310,12 +6834,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="24" customHeight="1">
+    <row r="17" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>169</v>
       </c>
@@ -6323,7 +6847,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="24" customHeight="1">
+    <row r="18" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -6334,8 +6858,10 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="AA19" s="6" t="s">
         <v>173</v>
       </c>
@@ -6346,7 +6872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="24" customHeight="1">
+    <row r="21" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>175</v>
       </c>
@@ -6354,7 +6880,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
@@ -6365,8 +6891,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>180</v>
+      </c>
       <c r="AA23" s="6" t="s">
         <v>179</v>
       </c>
@@ -6380,7 +6908,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="24" customHeight="1">
+    <row r="25" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>183</v>
       </c>
@@ -6388,7 +6916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>61</v>
       </c>
@@ -6399,8 +6927,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>187</v>
+      </c>
       <c r="AA27" s="6" t="s">
         <v>187</v>
       </c>
@@ -6414,7 +6944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="24" customHeight="1">
+    <row r="29" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>190</v>
       </c>
@@ -6422,7 +6952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>61</v>
       </c>
@@ -6433,8 +6963,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="AA31" s="6" t="s">
         <v>194</v>
       </c>
@@ -6448,7 +6980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
+    <row r="33" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>197</v>
       </c>
@@ -6456,7 +6988,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
+    <row r="34" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
@@ -6467,8 +6999,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="AA35" s="6" t="s">
         <v>201</v>
       </c>
@@ -6485,7 +7019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
+    <row r="38" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>205</v>
       </c>
@@ -6493,12 +7027,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="24" customHeight="1">
+    <row r="39" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
+    <row r="41" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>208</v>
       </c>
@@ -6506,7 +7040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
+    <row r="42" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>61</v>
       </c>
@@ -6517,13 +7051,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="24" customHeight="1">
+    <row r="43" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
+    <row r="44" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AA44" s="6" t="s">
         <v>212</v>
       </c>
@@ -6543,46 +7079,70 @@
         <v>66</v>
       </c>
     </row>
+    <row r="45" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA19:AC19</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B31 B27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>AA23:AD23</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AD27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0300-000004000000}">
+      <formula1>AA35:AE35</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>AA31:AD31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AE35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:B45" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>AA44:AF44</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AMK104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>217</v>
       </c>
@@ -6590,12 +7150,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1">
+    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1">
+    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>220</v>
       </c>
@@ -6603,7 +7163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1">
+    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -6614,10 +7174,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1">
+    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>223</v>
       </c>
@@ -6625,7 +7187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1">
+    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -6636,15 +7198,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1">
+    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1">
+    <row r="11" spans="1:36" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>226</v>
       </c>
@@ -6652,7 +7216,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1">
+    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>61</v>
       </c>
@@ -6663,8 +7227,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>231</v>
+      </c>
       <c r="AA15" s="6" t="s">
         <v>230</v>
       </c>
@@ -6696,7 +7262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="24" customHeight="1">
+    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>239</v>
       </c>
@@ -6704,7 +7270,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="24" customHeight="1">
+    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -6715,12 +7281,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="24" customHeight="1">
+    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="24" customHeight="1">
+    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
       <c r="AA20" s="6" t="s">
         <v>243</v>
@@ -6762,7 +7328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="24" customHeight="1">
+    <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>255</v>
       </c>
@@ -6770,12 +7336,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1">
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1">
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>258</v>
       </c>
@@ -6783,7 +7349,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1">
+    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -6794,7 +7360,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1">
+    <row r="28" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
         <v>262</v>
@@ -6806,7 +7372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1">
+    <row r="30" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>264</v>
       </c>
@@ -6814,7 +7380,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="24" customHeight="1">
+    <row r="31" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -6825,10 +7391,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1">
+    <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:29" ht="24" customHeight="1">
+    <row r="34" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>268</v>
       </c>
@@ -6836,7 +7402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="24" customHeight="1">
+    <row r="35" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
@@ -6847,10 +7413,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
+    <row r="36" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
     </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
+    <row r="39" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>272</v>
       </c>
@@ -6858,12 +7424,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="24" customHeight="1">
+    <row r="40" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="24" customHeight="1">
+    <row r="42" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>275</v>
       </c>
@@ -6871,7 +7437,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
+    <row r="43" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -6882,7 +7448,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="24" customHeight="1">
+    <row r="44" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="11"/>
       <c r="AA44" s="6" t="s">
         <v>262</v>
@@ -6894,7 +7460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
+    <row r="47" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>279</v>
       </c>
@@ -6902,12 +7468,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
+    <row r="48" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="24" customHeight="1">
+    <row r="50" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>282</v>
       </c>
@@ -6915,7 +7481,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="24" customHeight="1">
+    <row r="51" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>46</v>
       </c>
@@ -6926,10 +7492,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="24" customHeight="1">
+    <row r="52" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="11"/>
     </row>
-    <row r="54" spans="1:32" ht="24" customHeight="1">
+    <row r="54" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>286</v>
       </c>
@@ -6937,7 +7503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="24" customHeight="1">
+    <row r="55" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>61</v>
       </c>
@@ -6948,8 +7514,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
+    <row r="56" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="AA56" s="6" t="s">
         <v>289</v>
       </c>
@@ -6960,7 +7528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="24" customHeight="1">
+    <row r="59" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>291</v>
       </c>
@@ -6968,12 +7536,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="24" customHeight="1">
+    <row r="60" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="24" customHeight="1">
+    <row r="62" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>294</v>
       </c>
@@ -6981,7 +7549,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="24" customHeight="1">
+    <row r="63" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>61</v>
       </c>
@@ -6992,7 +7560,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="24" customHeight="1">
+    <row r="64" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="AA64" s="6" t="s">
         <v>297</v>
@@ -7013,7 +7581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="24" customHeight="1">
+    <row r="66" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>302</v>
       </c>
@@ -7021,7 +7589,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="24" customHeight="1">
+    <row r="67" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>61</v>
       </c>
@@ -7032,12 +7600,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="24" customHeight="1">
+    <row r="68" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="24" customHeight="1">
+    <row r="69" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="11"/>
       <c r="AA69" s="6" t="s">
         <v>306</v>
@@ -7079,7 +7647,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="24" customHeight="1">
+    <row r="71" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>318</v>
       </c>
@@ -7087,7 +7655,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="24" customHeight="1">
+    <row r="72" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>61</v>
       </c>
@@ -7098,12 +7666,12 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="24" customHeight="1">
+    <row r="73" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:39" ht="24" customHeight="1">
+    <row r="74" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
         <v>322</v>
@@ -7115,7 +7683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:39" ht="24" customHeight="1">
+    <row r="76" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>324</v>
       </c>
@@ -7123,7 +7691,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="77" spans="1:39" ht="24" customHeight="1">
+    <row r="77" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
         <v>61</v>
       </c>
@@ -7134,7 +7702,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="78" spans="1:39" ht="24" customHeight="1">
+    <row r="78" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
         <v>328</v>
@@ -7146,7 +7714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
+    <row r="81" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>330</v>
       </c>
@@ -7154,12 +7722,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="24" customHeight="1">
+    <row r="82" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
+    <row r="84" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>333</v>
       </c>
@@ -7167,7 +7735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
+    <row r="85" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>61</v>
       </c>
@@ -7178,7 +7746,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="24" customHeight="1">
+    <row r="86" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="AA86" s="6" t="s">
         <v>336</v>
@@ -7193,7 +7761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
+    <row r="88" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>339</v>
       </c>
@@ -7201,7 +7769,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
+    <row r="89" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>61</v>
       </c>
@@ -7212,12 +7780,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="24" customHeight="1">
+    <row r="90" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
+    <row r="91" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="AA91" s="6" t="s">
         <v>342</v>
@@ -7238,7 +7806,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1">
+    <row r="93" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>347</v>
       </c>
@@ -7246,7 +7814,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1">
+    <row r="94" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
         <v>61</v>
       </c>
@@ -7257,7 +7825,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
+    <row r="95" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="AA95" s="6" t="s">
         <v>351</v>
@@ -7275,7 +7843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
+    <row r="97" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>355</v>
       </c>
@@ -7283,7 +7851,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="24" customHeight="1">
+    <row r="98" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
         <v>61</v>
       </c>
@@ -7294,12 +7862,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="24" customHeight="1">
+    <row r="99" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="24" customHeight="1">
+    <row r="100" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="AA100" s="6" t="s">
         <v>358</v>
@@ -7323,7 +7891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="24" customHeight="1">
+    <row r="102" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>364</v>
       </c>
@@ -7331,7 +7899,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="24" customHeight="1">
+    <row r="103" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>61</v>
       </c>
@@ -7342,7 +7910,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="24" customHeight="1">
+    <row r="104" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="AA104" s="6" t="s">
         <v>328</v>
@@ -7352,69 +7920,62 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>AA15:AJ15</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B69" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>AA20:AM20</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B78 B74 B56 B44" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>AA28:AC28</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>AA44:AC44</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64 B91" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>AA64:AF64</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>AA56:AC56</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86" xr:uid="{00000000-0002-0000-0400-000009000000}">
+      <formula1>AA86:AD86</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AF64</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95" xr:uid="{00000000-0002-0000-0400-00000B000000}">
+      <formula1>AA95:AE95</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>AA69:AM69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0400-00000C000000}">
+      <formula1>AA100:AG100</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AC74</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AC78</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B86">
-      <formula1>AA86:AD86</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AE95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
-      <formula1>AA100:AG100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104" xr:uid="{00000000-0002-0000-0400-00000D000000}">
       <formula1>AA104:AB104</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMK206"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="24" customHeight="1">
+    <row r="1" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>367</v>
       </c>
@@ -7422,12 +7983,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="24" customHeight="1">
+    <row r="2" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="24" customHeight="1">
+    <row r="4" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>370</v>
       </c>
@@ -7435,7 +7996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="24" customHeight="1">
+    <row r="5" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -7446,10 +8007,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="24" customHeight="1">
+    <row r="6" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:40" ht="24" customHeight="1">
+    <row r="8" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>373</v>
       </c>
@@ -7457,7 +8018,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="24" customHeight="1">
+    <row r="9" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -7468,15 +8029,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="24" customHeight="1">
+    <row r="10" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:40" ht="24" customHeight="1">
+    <row r="11" spans="1:40" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>376</v>
       </c>
@@ -7484,7 +8047,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="24" customHeight="1">
+    <row r="14" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>61</v>
       </c>
@@ -7495,12 +8058,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="24" customHeight="1">
+    <row r="15" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="24" customHeight="1">
+    <row r="16" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
         <v>380</v>
@@ -7545,7 +8108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="24" customHeight="1">
+    <row r="19" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>393</v>
       </c>
@@ -7553,12 +8116,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="24" customHeight="1">
+    <row r="20" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="24" customHeight="1">
+    <row r="22" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>396</v>
       </c>
@@ -7566,7 +8129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="24" customHeight="1">
+    <row r="23" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
@@ -7577,10 +8140,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="24" customHeight="1">
+    <row r="24" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
+    <row r="26" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>399</v>
       </c>
@@ -7588,7 +8151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="24" customHeight="1">
+    <row r="27" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>61</v>
       </c>
@@ -7599,7 +8162,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="24" customHeight="1">
+    <row r="28" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
         <v>403</v>
@@ -7614,7 +8177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
+    <row r="30" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>406</v>
       </c>
@@ -7622,7 +8185,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="24" customHeight="1">
+    <row r="31" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>61</v>
       </c>
@@ -7633,12 +8196,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="24" customHeight="1">
+    <row r="32" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
+    <row r="33" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11"/>
       <c r="AA33" s="6" t="s">
         <v>410</v>
@@ -7659,7 +8222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="24" customHeight="1">
+    <row r="35" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>415</v>
       </c>
@@ -7667,7 +8230,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="24" customHeight="1">
+    <row r="36" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>94</v>
       </c>
@@ -7678,10 +8241,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="39" spans="1:32" ht="24" customHeight="1">
+    <row r="37" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>419</v>
       </c>
@@ -7689,7 +8254,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="24" customHeight="1">
+    <row r="40" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>61</v>
       </c>
@@ -7700,12 +8265,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
+    <row r="41" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
+    <row r="42" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
         <v>423</v>
@@ -7717,7 +8282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
+    <row r="45" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>425</v>
       </c>
@@ -7725,12 +8290,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
+    <row r="46" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="24" customHeight="1">
+    <row r="48" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>428</v>
       </c>
@@ -7738,7 +8303,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="24" customHeight="1">
+    <row r="49" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>61</v>
       </c>
@@ -7749,12 +8314,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="24" customHeight="1">
+    <row r="50" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="24" customHeight="1">
+    <row r="51" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
         <v>432</v>
@@ -7790,7 +8355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="24" customHeight="1">
+    <row r="53" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>442</v>
       </c>
@@ -7798,7 +8363,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="24" customHeight="1">
+    <row r="54" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
@@ -7809,12 +8374,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="24" customHeight="1">
+    <row r="55" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="24" customHeight="1">
+    <row r="56" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="AA56" s="6" t="s">
         <v>446</v>
@@ -7871,7 +8436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="24" customHeight="1">
+    <row r="58" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>463</v>
       </c>
@@ -7879,7 +8444,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="24" customHeight="1">
+    <row r="59" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>61</v>
       </c>
@@ -7890,12 +8455,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="24" customHeight="1">
+    <row r="60" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="24" customHeight="1">
+    <row r="61" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11"/>
       <c r="AA61" s="6" t="s">
         <v>467</v>
@@ -7970,7 +8535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="24" customHeight="1">
+    <row r="64" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>490</v>
       </c>
@@ -7978,12 +8543,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="24" customHeight="1">
+    <row r="65" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="24" customHeight="1">
+    <row r="67" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>493</v>
       </c>
@@ -7991,7 +8556,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="24" customHeight="1">
+    <row r="68" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>61</v>
       </c>
@@ -8002,12 +8567,12 @@
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="24" customHeight="1">
+    <row r="69" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="24" customHeight="1">
+    <row r="70" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="11"/>
       <c r="AA70" s="6" t="s">
         <v>497</v>
@@ -8034,7 +8599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="24" customHeight="1">
+    <row r="72" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>504</v>
       </c>
@@ -8042,7 +8607,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="24" customHeight="1">
+    <row r="73" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>61</v>
       </c>
@@ -8053,12 +8618,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="24" customHeight="1">
+    <row r="74" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="24" customHeight="1">
+    <row r="75" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="11"/>
       <c r="AA75" s="6" t="s">
         <v>508</v>
@@ -8079,7 +8644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="24" customHeight="1">
+    <row r="78" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>513</v>
       </c>
@@ -8087,12 +8652,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="24" customHeight="1">
+    <row r="79" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="24" customHeight="1">
+    <row r="81" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>516</v>
       </c>
@@ -8100,7 +8665,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="24" customHeight="1">
+    <row r="82" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>61</v>
       </c>
@@ -8111,12 +8676,12 @@
         <v>518</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="24" customHeight="1">
+    <row r="83" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="24" customHeight="1">
+    <row r="84" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
         <v>519</v>
@@ -8134,7 +8699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="24" customHeight="1">
+    <row r="86" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>523</v>
       </c>
@@ -8142,7 +8707,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="24" customHeight="1">
+    <row r="87" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>61</v>
       </c>
@@ -8153,12 +8718,12 @@
         <v>525</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
+    <row r="88" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="24" customHeight="1">
+    <row r="89" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
         <v>509</v>
@@ -8170,7 +8735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="24" customHeight="1">
+    <row r="92" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>526</v>
       </c>
@@ -8178,12 +8743,12 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="24" customHeight="1">
+    <row r="93" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="24" customHeight="1">
+    <row r="95" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>529</v>
       </c>
@@ -8191,7 +8756,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
+    <row r="96" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>61</v>
       </c>
@@ -8202,7 +8767,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="24" customHeight="1">
+    <row r="97" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="AA97" s="6" t="s">
         <v>533</v>
@@ -8217,7 +8782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="24" customHeight="1">
+    <row r="100" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
         <v>536</v>
       </c>
@@ -8225,12 +8790,12 @@
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="24" customHeight="1">
+    <row r="101" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="24" customHeight="1">
+    <row r="103" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>539</v>
       </c>
@@ -8238,7 +8803,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="24" customHeight="1">
+    <row r="104" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>61</v>
       </c>
@@ -8249,12 +8814,12 @@
         <v>541</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="24" customHeight="1">
+    <row r="105" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="24" customHeight="1">
+    <row r="106" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="AA106" s="6" t="s">
         <v>542</v>
@@ -8278,7 +8843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="24" customHeight="1">
+    <row r="108" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>548</v>
       </c>
@@ -8286,7 +8851,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="24" customHeight="1">
+    <row r="109" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>61</v>
       </c>
@@ -8297,12 +8862,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="24" customHeight="1">
+    <row r="110" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="24" customHeight="1">
+    <row r="111" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="AA111" s="6" t="s">
         <v>508</v>
@@ -8323,7 +8888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="24" customHeight="1">
+    <row r="114" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
         <v>551</v>
       </c>
@@ -8331,12 +8896,12 @@
         <v>552</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="24" customHeight="1">
+    <row r="115" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="13" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="24" customHeight="1">
+    <row r="117" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>554</v>
       </c>
@@ -8344,7 +8909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="24" customHeight="1">
+    <row r="118" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
         <v>46</v>
       </c>
@@ -8355,10 +8920,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="24" customHeight="1">
+    <row r="119" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="11"/>
     </row>
-    <row r="121" spans="1:32" ht="24" customHeight="1">
+    <row r="121" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>557</v>
       </c>
@@ -8366,7 +8931,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="24" customHeight="1">
+    <row r="122" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
         <v>61</v>
       </c>
@@ -8377,7 +8942,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="24" customHeight="1">
+    <row r="123" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="11"/>
       <c r="AA123" s="6" t="s">
         <v>403</v>
@@ -8392,7 +8957,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="24" customHeight="1">
+    <row r="125" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>560</v>
       </c>
@@ -8400,7 +8965,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="24" customHeight="1">
+    <row r="126" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
         <v>61</v>
       </c>
@@ -8411,12 +8976,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="24" customHeight="1">
+    <row r="127" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="24" customHeight="1">
+    <row r="128" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="11"/>
       <c r="AA128" s="6" t="s">
         <v>410</v>
@@ -8437,7 +9002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="24" customHeight="1">
+    <row r="130" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>563</v>
       </c>
@@ -8445,7 +9010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="24" customHeight="1">
+    <row r="131" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
         <v>94</v>
       </c>
@@ -8456,10 +9021,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="24" customHeight="1">
+    <row r="132" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="11"/>
     </row>
-    <row r="134" spans="1:29" ht="24" customHeight="1">
+    <row r="134" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>566</v>
       </c>
@@ -8467,7 +9032,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="24" customHeight="1">
+    <row r="135" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>61</v>
       </c>
@@ -8478,12 +9043,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="24" customHeight="1">
+    <row r="136" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="24" customHeight="1">
+    <row r="137" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="11"/>
       <c r="AA137" s="6" t="s">
         <v>423</v>
@@ -8495,7 +9060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="24" customHeight="1">
+    <row r="140" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
         <v>568</v>
       </c>
@@ -8503,12 +9068,12 @@
         <v>569</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="24" customHeight="1">
+    <row r="141" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="24" customHeight="1">
+    <row r="143" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>571</v>
       </c>
@@ -8516,7 +9081,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="24" customHeight="1">
+    <row r="144" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>61</v>
       </c>
@@ -8527,12 +9092,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="145" spans="1:50" ht="24" customHeight="1">
+    <row r="145" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:50" ht="24" customHeight="1">
+    <row r="146" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="11"/>
       <c r="AA146" s="6" t="s">
         <v>432</v>
@@ -8568,7 +9133,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:50" ht="24" customHeight="1">
+    <row r="148" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>574</v>
       </c>
@@ -8576,7 +9141,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:50" ht="24" customHeight="1">
+    <row r="149" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
         <v>61</v>
       </c>
@@ -8587,12 +9152,12 @@
         <v>576</v>
       </c>
     </row>
-    <row r="150" spans="1:50" ht="24" customHeight="1">
+    <row r="150" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:50" ht="24" customHeight="1">
+    <row r="151" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="11"/>
       <c r="AA151" s="6" t="s">
         <v>446</v>
@@ -8649,7 +9214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:50" ht="24" customHeight="1">
+    <row r="153" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>577</v>
       </c>
@@ -8657,7 +9222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="154" spans="1:50" ht="24" customHeight="1">
+    <row r="154" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>61</v>
       </c>
@@ -8668,12 +9233,12 @@
         <v>579</v>
       </c>
     </row>
-    <row r="155" spans="1:50" ht="24" customHeight="1">
+    <row r="155" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:50" ht="24" customHeight="1">
+    <row r="156" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="11"/>
       <c r="AA156" s="6" t="s">
         <v>467</v>
@@ -8748,7 +9313,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:50" ht="24" customHeight="1">
+    <row r="159" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
         <v>580</v>
       </c>
@@ -8756,12 +9321,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="1:50" ht="24" customHeight="1">
+    <row r="160" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="13" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="162" spans="1:34" ht="24" customHeight="1">
+    <row r="162" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>583</v>
       </c>
@@ -8769,7 +9334,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="163" spans="1:34" ht="24" customHeight="1">
+    <row r="163" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>61</v>
       </c>
@@ -8780,12 +9345,12 @@
         <v>586</v>
       </c>
     </row>
-    <row r="164" spans="1:34" ht="24" customHeight="1">
+    <row r="164" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:34" ht="24" customHeight="1">
+    <row r="165" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="11"/>
       <c r="AA165" s="6" t="s">
         <v>497</v>
@@ -8812,7 +9377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:34" ht="24" customHeight="1">
+    <row r="167" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>587</v>
       </c>
@@ -8820,7 +9385,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="168" spans="1:34" ht="24" customHeight="1">
+    <row r="168" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
         <v>61</v>
       </c>
@@ -8831,12 +9396,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="169" spans="1:34" ht="24" customHeight="1">
+    <row r="169" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:34" ht="24" customHeight="1">
+    <row r="170" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="11"/>
       <c r="AA170" s="6" t="s">
         <v>508</v>
@@ -8857,7 +9422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="173" spans="1:34" ht="24" customHeight="1">
+    <row r="173" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="s">
         <v>590</v>
       </c>
@@ -8865,12 +9430,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="174" spans="1:34" ht="24" customHeight="1">
+    <row r="174" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="13" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:34" ht="24" customHeight="1">
+    <row r="176" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>593</v>
       </c>
@@ -8878,7 +9443,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="24" customHeight="1">
+    <row r="177" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
         <v>61</v>
       </c>
@@ -8889,12 +9454,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="24" customHeight="1">
+    <row r="178" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="24" customHeight="1">
+    <row r="179" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="11"/>
       <c r="AA179" s="6" t="s">
         <v>519</v>
@@ -8912,7 +9477,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="24" customHeight="1">
+    <row r="181" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>596</v>
       </c>
@@ -8920,7 +9485,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="24" customHeight="1">
+    <row r="182" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14" t="s">
         <v>61</v>
       </c>
@@ -8931,12 +9496,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="24" customHeight="1">
+    <row r="183" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="24" customHeight="1">
+    <row r="184" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="11"/>
       <c r="AA184" s="6" t="s">
         <v>509</v>
@@ -8948,7 +9513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="24" customHeight="1">
+    <row r="187" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="s">
         <v>599</v>
       </c>
@@ -8956,12 +9521,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="24" customHeight="1">
+    <row r="188" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="13" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="24" customHeight="1">
+    <row r="190" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>602</v>
       </c>
@@ -8969,7 +9534,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="24" customHeight="1">
+    <row r="191" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
         <v>61</v>
       </c>
@@ -8980,7 +9545,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="24" customHeight="1">
+    <row r="192" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="11"/>
       <c r="AA192" s="6" t="s">
         <v>533</v>
@@ -8995,7 +9560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="24" customHeight="1">
+    <row r="195" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="s">
         <v>604</v>
       </c>
@@ -9003,12 +9568,12 @@
         <v>605</v>
       </c>
     </row>
-    <row r="196" spans="1:33" ht="24" customHeight="1">
+    <row r="196" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="13" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="198" spans="1:33" ht="24" customHeight="1">
+    <row r="198" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>607</v>
       </c>
@@ -9016,7 +9581,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="199" spans="1:33" ht="24" customHeight="1">
+    <row r="199" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="14" t="s">
         <v>61</v>
       </c>
@@ -9027,12 +9592,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="200" spans="1:33" ht="24" customHeight="1">
+    <row r="200" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:33" ht="24" customHeight="1">
+    <row r="201" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="11"/>
       <c r="AA201" s="6" t="s">
         <v>542</v>
@@ -9056,7 +9621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:33" ht="24" customHeight="1">
+    <row r="203" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>610</v>
       </c>
@@ -9064,7 +9629,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="204" spans="1:33" ht="24" customHeight="1">
+    <row r="204" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="14" t="s">
         <v>61</v>
       </c>
@@ -9075,12 +9640,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="205" spans="1:33" ht="24" customHeight="1">
+    <row r="205" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:33" ht="24" customHeight="1">
+    <row r="206" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="11"/>
       <c r="AA206" s="6" t="s">
         <v>508</v>
@@ -9102,114 +9667,74 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="29">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>AA16:AN16</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B192 B123 B97" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>AA28:AD28</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33 B206 B170 B128 B111 B75" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>AA33:AF33</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B132" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 B184 B137 B89" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>AA42:AC42</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B146" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>AA51:AK51</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56 B151" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>AA56:AR56</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B156" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>AA61:AX61</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70 B165" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>AA70:AH70</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
-      <formula1>AA75:AF75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B179" xr:uid="{00000000-0002-0000-0500-00000A000000}">
+      <formula1>AA84:AE84</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>AA84:AE84</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>AA89:AC89</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>AA97:AD97</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106 B201" xr:uid="{00000000-0002-0000-0500-00000D000000}">
       <formula1>AA106:AG106</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111">
-      <formula1>AA111:AF111</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B123">
-      <formula1>AA123:AD123</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128">
-      <formula1>AA128:AF128</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B132">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B137">
-      <formula1>AA137:AC137</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146">
-      <formula1>AA146:AK146</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151">
-      <formula1>AA151:AR151</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B156">
-      <formula1>AA156:AX156</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B165">
-      <formula1>AA165:AH165</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B170">
-      <formula1>AA170:AF170</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B179">
-      <formula1>AA179:AE179</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B184">
-      <formula1>AA184:AC184</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B192">
-      <formula1>AA192:AD192</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B201">
-      <formula1>AA201:AG201</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B206">
-      <formula1>AA206:AF206</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMK87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>613</v>
       </c>
@@ -9217,12 +9742,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>616</v>
       </c>
@@ -9230,7 +9755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9241,10 +9766,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>619</v>
       </c>
@@ -9252,7 +9777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -9263,15 +9788,17 @@
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>622</v>
       </c>
@@ -9279,12 +9806,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="24" customHeight="1">
+    <row r="17" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>625</v>
       </c>
@@ -9292,7 +9819,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="24" customHeight="1">
+    <row r="18" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>61</v>
       </c>
@@ -9303,13 +9830,15 @@
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>628</v>
+      </c>
       <c r="AA19" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>630</v>
@@ -9318,7 +9847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="24" customHeight="1">
+    <row r="21" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>631</v>
       </c>
@@ -9326,7 +9855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="24" customHeight="1">
+    <row r="22" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
@@ -9337,12 +9866,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="24" customHeight="1">
+    <row r="23" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="24" customHeight="1">
+    <row r="24" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
         <v>634</v>
@@ -9378,7 +9907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="24" customHeight="1">
+    <row r="26" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>644</v>
       </c>
@@ -9386,7 +9915,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="24" customHeight="1">
+    <row r="27" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>94</v>
       </c>
@@ -9397,10 +9926,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="24" customHeight="1">
+    <row r="28" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
     </row>
-    <row r="30" spans="1:37" ht="24" customHeight="1">
+    <row r="30" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>648</v>
       </c>
@@ -9408,7 +9937,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="24" customHeight="1">
+    <row r="31" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>99</v>
       </c>
@@ -9419,10 +9948,10 @@
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="24" customHeight="1">
+    <row r="32" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
     </row>
-    <row r="35" spans="1:30" ht="24" customHeight="1">
+    <row r="35" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>652</v>
       </c>
@@ -9430,12 +9959,12 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="24" customHeight="1">
+    <row r="36" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="24" customHeight="1">
+    <row r="38" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>655</v>
       </c>
@@ -9443,7 +9972,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="24" customHeight="1">
+    <row r="39" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
@@ -9454,10 +9983,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
-    </row>
-    <row r="42" spans="1:30" ht="24" customHeight="1">
+    <row r="40" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>658</v>
       </c>
@@ -9465,7 +9996,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="24" customHeight="1">
+    <row r="43" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
@@ -9476,27 +10007,29 @@
         <v>660</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="24" customHeight="1">
+    <row r="44" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+    <row r="45" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
+        <v>661</v>
+      </c>
       <c r="AA45" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC45" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>663</v>
       </c>
       <c r="AD45" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="24" customHeight="1">
+    <row r="47" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>664</v>
       </c>
@@ -9504,7 +10037,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="24" customHeight="1">
+    <row r="48" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>61</v>
       </c>
@@ -9515,12 +10048,12 @@
         <v>666</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="24" customHeight="1">
+    <row r="49" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="24" customHeight="1">
+    <row r="50" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
         <v>667</v>
@@ -9541,7 +10074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="24" customHeight="1">
+    <row r="52" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>672</v>
       </c>
@@ -9549,7 +10082,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="24" customHeight="1">
+    <row r="53" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>61</v>
       </c>
@@ -9560,12 +10093,12 @@
         <v>675</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="24" customHeight="1">
+    <row r="54" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="24" customHeight="1">
+    <row r="55" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
         <v>676</v>
@@ -9598,7 +10131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="24" customHeight="1">
+    <row r="57" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>685</v>
       </c>
@@ -9606,7 +10139,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="24" customHeight="1">
+    <row r="58" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>61</v>
       </c>
@@ -9617,12 +10150,12 @@
         <v>688</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="24" customHeight="1">
+    <row r="59" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="24" customHeight="1">
+    <row r="60" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="11"/>
       <c r="AA60" s="6" t="s">
         <v>689</v>
@@ -9637,7 +10170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="24" customHeight="1">
+    <row r="63" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>692</v>
       </c>
@@ -9645,12 +10178,12 @@
         <v>693</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="24" customHeight="1">
+    <row r="64" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
+    <row r="66" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>695</v>
       </c>
@@ -9658,7 +10191,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
+    <row r="67" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>46</v>
       </c>
@@ -9669,10 +10202,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="24" customHeight="1">
+    <row r="68" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
     </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
+    <row r="70" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>698</v>
       </c>
@@ -9680,7 +10213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    <row r="71" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>61</v>
       </c>
@@ -9691,15 +10224,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="24" customHeight="1">
+    <row r="72" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
+    <row r="73" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AB73" s="6" t="s">
         <v>701</v>
@@ -9708,7 +10241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
+    <row r="75" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>702</v>
       </c>
@@ -9716,7 +10249,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
+    <row r="76" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>61</v>
       </c>
@@ -9727,7 +10260,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="AA77" s="6" t="s">
         <v>705</v>
@@ -9742,7 +10275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
+    <row r="79" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>708</v>
       </c>
@@ -9750,7 +10283,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
+    <row r="80" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
         <v>61</v>
       </c>
@@ -9761,12 +10294,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
+    <row r="81" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="24" customHeight="1">
+    <row r="82" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="AA82" s="6" t="s">
         <v>677</v>
@@ -9787,7 +10320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
+    <row r="84" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>711</v>
       </c>
@@ -9795,7 +10328,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
+    <row r="85" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
         <v>61</v>
       </c>
@@ -9806,12 +10339,12 @@
         <v>713</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="24" customHeight="1">
+    <row r="86" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1">
+    <row r="87" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="AA87" s="6" t="s">
         <v>689</v>
@@ -9827,63 +10360,58 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50 B82" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>AA50:AF50</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B87 B77 B60 B45" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>AA19:AD19</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>AA24:AK24</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AD45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55" xr:uid="{00000000-0002-0000-0600-000006000000}">
+      <formula1>AA55:AJ55</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AF50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AJ55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
-      <formula1>AA60:AD60</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73" xr:uid="{00000000-0002-0000-0600-000008000000}">
       <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
-      <formula1>AA77:AD77</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>AA82:AF82</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>AA87:AD87</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>714</v>
       </c>
@@ -9891,12 +10419,12 @@
         <v>715</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>717</v>
       </c>
@@ -9904,7 +10432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
+    <row r="5" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9915,10 +10443,10 @@
         <v>719</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>720</v>
       </c>
@@ -9926,7 +10454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -9937,15 +10465,17 @@
         <v>722</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
+    <row r="11" spans="1:3" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>723</v>
       </c>
@@ -9953,12 +10483,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="24" customHeight="1">
+    <row r="17" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>726</v>
       </c>
@@ -9966,7 +10496,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -9977,10 +10507,10 @@
         <v>728</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
     </row>
-    <row r="21" spans="1:31" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>729</v>
       </c>
@@ -9988,7 +10518,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="24" customHeight="1">
+    <row r="22" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
@@ -9999,12 +10529,12 @@
         <v>732</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="24" customHeight="1">
+    <row r="24" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
         <v>733</v>
@@ -10022,7 +10552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>737</v>
       </c>
@@ -10030,12 +10560,12 @@
         <v>738</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>740</v>
       </c>
@@ -10043,7 +10573,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="24" customHeight="1">
+    <row r="31" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>46</v>
       </c>
@@ -10054,10 +10584,10 @@
         <v>742</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="24" customHeight="1">
+    <row r="32" spans="1:31" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:35" ht="24" customHeight="1">
+    <row r="34" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>743</v>
       </c>
@@ -10065,7 +10595,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="24" customHeight="1">
+    <row r="35" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>61</v>
       </c>
@@ -10076,12 +10606,12 @@
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="24" customHeight="1">
+    <row r="36" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="24" customHeight="1">
+    <row r="37" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
         <v>746</v>
@@ -10113,32 +10643,37 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>AA24:AE24</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>AA37:AI37</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMK89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" hidden="1"/>
+    <col min="4" max="1025" width="9.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="24" customHeight="1">
+    <row r="1" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>754</v>
       </c>
@@ -10146,12 +10681,12 @@
         <v>755</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="24" customHeight="1">
+    <row r="2" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="24" customHeight="1">
+    <row r="4" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>757</v>
       </c>
@@ -10159,7 +10694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="24" customHeight="1">
+    <row r="5" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>46</v>
       </c>
@@ -10170,10 +10705,10 @@
         <v>759</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="24" customHeight="1">
+    <row r="6" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
     </row>
-    <row r="8" spans="1:29" ht="24" customHeight="1">
+    <row r="8" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>760</v>
       </c>
@@ -10181,7 +10716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="24" customHeight="1">
+    <row r="9" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -10192,15 +10727,17 @@
         <v>762</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="24" customHeight="1">
+    <row r="10" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:29" ht="24" customHeight="1">
+    <row r="11" spans="1:29" ht="178" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>763</v>
       </c>
@@ -10208,7 +10745,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="24" customHeight="1">
+    <row r="14" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>61</v>
       </c>
@@ -10219,12 +10756,12 @@
         <v>765</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="24" customHeight="1">
+    <row r="15" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="24" customHeight="1">
+    <row r="16" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="AA16" s="6" t="s">
         <v>766</v>
@@ -10236,7 +10773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>768</v>
       </c>
@@ -10244,7 +10781,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
+    <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
@@ -10255,10 +10792,10 @@
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
+    <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11"/>
     </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
+    <row r="22" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>772</v>
       </c>
@@ -10266,7 +10803,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
+    <row r="23" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>61</v>
       </c>
@@ -10277,12 +10814,12 @@
         <v>774</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="24" customHeight="1">
+    <row r="24" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="24" customHeight="1">
+    <row r="25" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
         <v>678</v>
@@ -10297,7 +10834,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="24" customHeight="1">
+    <row r="27" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>776</v>
       </c>
@@ -10305,7 +10842,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="24" customHeight="1">
+    <row r="28" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>61</v>
       </c>
@@ -10316,12 +10853,12 @@
         <v>778</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="24" customHeight="1">
+    <row r="29" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="24" customHeight="1">
+    <row r="30" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
         <v>779</v>
@@ -10348,7 +10885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="24" customHeight="1">
+    <row r="32" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>784</v>
       </c>
@@ -10356,7 +10893,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="24" customHeight="1">
+    <row r="33" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
@@ -10367,12 +10904,12 @@
         <v>787</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="24" customHeight="1">
+    <row r="34" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="24" customHeight="1">
+    <row r="35" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11"/>
       <c r="AA35" s="6" t="s">
         <v>788</v>
@@ -10393,7 +10930,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
+    <row r="38" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>794</v>
       </c>
@@ -10401,12 +10938,12 @@
         <v>795</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="24" customHeight="1">
+    <row r="39" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="24" customHeight="1">
+    <row r="41" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>797</v>
       </c>
@@ -10414,7 +10951,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="24" customHeight="1">
+    <row r="42" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>61</v>
       </c>
@@ -10425,7 +10962,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="24" customHeight="1">
+    <row r="43" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11"/>
       <c r="AA43" s="6" t="s">
         <v>801</v>
@@ -10443,7 +10980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="24" customHeight="1">
+    <row r="45" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>805</v>
       </c>
@@ -10451,7 +10988,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="24" customHeight="1">
+    <row r="46" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
@@ -10462,10 +10999,10 @@
         <v>807</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="24" customHeight="1">
+    <row r="47" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11"/>
     </row>
-    <row r="50" spans="1:28" ht="24" customHeight="1">
+    <row r="50" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>808</v>
       </c>
@@ -10473,12 +11010,12 @@
         <v>809</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="24" customHeight="1">
+    <row r="51" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="24" customHeight="1">
+    <row r="53" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>811</v>
       </c>
@@ -10486,7 +11023,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="24" customHeight="1">
+    <row r="54" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>61</v>
       </c>
@@ -10497,7 +11034,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="24" customHeight="1">
+    <row r="55" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
         <v>766</v>
@@ -10506,7 +11043,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="57" spans="1:28" ht="24" customHeight="1">
+    <row r="57" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>814</v>
       </c>
@@ -10514,7 +11051,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="24" customHeight="1">
+    <row r="58" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>46</v>
       </c>
@@ -10525,10 +11062,10 @@
         <v>817</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="24" customHeight="1">
+    <row r="59" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
     </row>
-    <row r="61" spans="1:28" ht="24" customHeight="1">
+    <row r="61" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>818</v>
       </c>
@@ -10536,7 +11073,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="24" customHeight="1">
+    <row r="62" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>94</v>
       </c>
@@ -10547,10 +11084,10 @@
         <v>821</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="24" customHeight="1">
+    <row r="63" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
     </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
+    <row r="65" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>822</v>
       </c>
@@ -10558,7 +11095,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
+    <row r="66" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>61</v>
       </c>
@@ -10569,12 +11106,12 @@
         <v>825</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
+    <row r="67" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="24" customHeight="1">
+    <row r="68" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="11"/>
       <c r="AA68" s="6" t="s">
         <v>826</v>
@@ -10586,7 +11123,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
+    <row r="71" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>829</v>
       </c>
@@ -10594,12 +11131,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
+    <row r="72" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="13" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
+    <row r="74" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>832</v>
       </c>
@@ -10607,7 +11144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
+    <row r="75" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>61</v>
       </c>
@@ -10618,7 +11155,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
+    <row r="76" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
         <v>766</v>
@@ -10627,7 +11164,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="24" customHeight="1">
+    <row r="78" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>835</v>
       </c>
@@ -10635,7 +11172,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
+    <row r="79" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>46</v>
       </c>
@@ -10646,10 +11183,10 @@
         <v>837</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="24" customHeight="1">
+    <row r="80" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
     </row>
-    <row r="82" spans="1:29" ht="24" customHeight="1">
+    <row r="82" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>838</v>
       </c>
@@ -10657,7 +11194,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="24" customHeight="1">
+    <row r="83" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
         <v>94</v>
       </c>
@@ -10668,10 +11205,10 @@
         <v>840</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="24" customHeight="1">
+    <row r="84" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
     </row>
-    <row r="86" spans="1:29" ht="24" customHeight="1">
+    <row r="86" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>841</v>
       </c>
@@ -10679,7 +11216,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="24" customHeight="1">
+    <row r="87" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
         <v>61</v>
       </c>
@@ -10690,12 +11227,12 @@
         <v>843</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="24" customHeight="1">
+    <row r="88" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="24" customHeight="1">
+    <row r="89" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="AA89" s="6" t="s">
         <v>826</v>
@@ -10708,41 +11245,37 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 B89 B68" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>AA16:AC16</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA25:AD25</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>AA30:AH30</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA35:AF35</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43" xr:uid="{00000000-0002-0000-0800-000004000000}">
       <formula1>AA43:AE43</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B76" xr:uid="{00000000-0002-0000-0800-000005000000}">
       <formula1>AA55:AB55</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B84" xr:uid="{00000000-0002-0000-0800-000006000000}">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AC68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AB76</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
-      <formula1>AA89:AC89</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>